--- a/gc_df.xlsx
+++ b/gc_df.xlsx
@@ -513,61 +513,61 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>153.8504886131005</v>
+        <v>165.4198649900723</v>
       </c>
       <c r="D2">
-        <v>2.940049876788317</v>
+        <v>6.323242364380063</v>
       </c>
       <c r="E2">
-        <v>1157</v>
+        <v>1044</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>0.4824497204852933</v>
+        <v>0.4380378794328978</v>
       </c>
       <c r="H2">
-        <v>414.5954627012334</v>
+        <v>405.4390265492455</v>
       </c>
       <c r="I2">
-        <v>667.7476246139814</v>
+        <v>778.7778104803024</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>187.7879760594643</v>
+        <v>6.887917671738804</v>
       </c>
       <c r="L2">
-        <v>12.85355577221592</v>
+        <v>464.7606719262957</v>
       </c>
       <c r="M2">
-        <v>206.9999999999991</v>
+        <v>181.4840437219463</v>
       </c>
       <c r="N2">
-        <v>50.89923560689928</v>
+        <v>30.67371083570801</v>
       </c>
       <c r="O2">
-        <v>5.125177469859335</v>
+        <v>6.009746756245127</v>
       </c>
       <c r="P2">
-        <v>47.66744930875139</v>
+        <v>45.30792972352632</v>
       </c>
       <c r="Q2">
-        <v>368.5865652238134</v>
+        <v>321.650547406114</v>
       </c>
       <c r="R2">
-        <v>0.8024014373397605</v>
+        <v>0.7674138564019199</v>
       </c>
       <c r="S2">
-        <v>83.79430208811425</v>
+        <v>195.895231497527</v>
       </c>
       <c r="T2">
-        <v>5.511099220329305</v>
+        <v>4.821012996184153</v>
       </c>
       <c r="U2">
-        <v>0.4399075367891818</v>
+        <v>0.4387801597867014</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -575,64 +575,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>150.0019527031949</v>
+        <v>176.0672015979815</v>
       </c>
       <c r="D3">
-        <v>2.940136640478459</v>
+        <v>3.998486921599747</v>
       </c>
       <c r="E3">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>0.4956877890909903</v>
+        <v>0.4368600871656321</v>
       </c>
       <c r="H3">
-        <v>424.4820196132293</v>
+        <v>438.7851544119451</v>
       </c>
       <c r="I3">
-        <v>638.1739064495798</v>
+        <v>670.3753853946629</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>316.4730177481852</v>
+        <v>0.001065564223307352</v>
       </c>
       <c r="L3">
-        <v>43.78353401601947</v>
+        <v>876.1281104046381</v>
       </c>
       <c r="M3">
-        <v>207</v>
+        <v>181.4840438814783</v>
       </c>
       <c r="N3">
-        <v>50.81828659239081</v>
+        <v>30.28711800999945</v>
       </c>
       <c r="O3">
-        <v>5.019198921604834</v>
+        <v>6.644149405430532</v>
       </c>
       <c r="P3">
-        <v>50.51580613575503</v>
+        <v>42.85441503372407</v>
       </c>
       <c r="Q3">
-        <v>418.1964223404681</v>
+        <v>355.4157650638949</v>
       </c>
       <c r="R3">
-        <v>0.6206935443961923</v>
+        <v>0.6558254901159775</v>
       </c>
       <c r="S3">
-        <v>58.77172995848896</v>
+        <v>90.76432053418574</v>
       </c>
       <c r="T3">
-        <v>6.05712049954805</v>
+        <v>2.853728688672637</v>
       </c>
       <c r="U3">
-        <v>0.4278579495507888</v>
+        <v>0.3662449055059667</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>183.1372221730752</v>
+        <v>200.8409021196294</v>
       </c>
       <c r="D4">
-        <v>2.940069264893764</v>
+        <v>3.150221898043222</v>
       </c>
       <c r="E4">
-        <v>1119</v>
+        <v>1044</v>
       </c>
       <c r="F4">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>0.4593572896917371</v>
+        <v>0.4463880173798414</v>
       </c>
       <c r="H4">
-        <v>415.0689828874281</v>
+        <v>432.6836346940802</v>
       </c>
       <c r="I4">
-        <v>754.1327946935889</v>
+        <v>660.4645591790277</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>40.07273079307708</v>
+        <v>0.001295900619918437</v>
       </c>
       <c r="L4">
-        <v>14.95730862275502</v>
+        <v>190.3504642184243</v>
       </c>
       <c r="M4">
-        <v>206.9993503509702</v>
+        <v>181.4849773046003</v>
       </c>
       <c r="N4">
-        <v>34.53253361649973</v>
+        <v>53.27190799986416</v>
       </c>
       <c r="O4">
-        <v>5.230326547363124</v>
+        <v>6.048980061605589</v>
       </c>
       <c r="P4">
-        <v>57.31590075782767</v>
+        <v>47.22310735989422</v>
       </c>
       <c r="Q4">
-        <v>322.7680656133462</v>
+        <v>356.9396811664936</v>
       </c>
       <c r="R4">
-        <v>0.3495305947024315</v>
+        <v>0.7517209232021467</v>
       </c>
       <c r="S4">
-        <v>92.06321947262327</v>
+        <v>41.32610501192817</v>
       </c>
       <c r="T4">
-        <v>5.554337466897812</v>
+        <v>5.031875333625444</v>
       </c>
       <c r="U4">
-        <v>0.3834002698567511</v>
+        <v>0.3901819437120753</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>204.6715806555512</v>
+        <v>168.251279382628</v>
       </c>
       <c r="D5">
-        <v>2.940064721046837</v>
+        <v>2.940026004816114</v>
       </c>
       <c r="E5">
-        <v>1049</v>
+        <v>1070</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G5">
-        <v>0.4559250197055023</v>
+        <v>0.4759116530364163</v>
       </c>
       <c r="H5">
-        <v>433.3389386520525</v>
+        <v>427.1353449198155</v>
       </c>
       <c r="I5">
-        <v>671.4882131972536</v>
+        <v>651.9447796804483</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01615200698418171</v>
+        <v>14.64349354025459</v>
       </c>
       <c r="L5">
-        <v>1237.573836782654</v>
+        <v>8.75236954340164</v>
       </c>
       <c r="M5">
-        <v>206.9961723199625</v>
+        <v>206.9999999999455</v>
       </c>
       <c r="N5">
-        <v>59.24606649923835</v>
+        <v>58.59314370612049</v>
       </c>
       <c r="O5">
-        <v>5.340585202565878</v>
+        <v>5.251764657126317</v>
       </c>
       <c r="P5">
-        <v>45.72480712219419</v>
+        <v>56.7078258514994</v>
       </c>
       <c r="Q5">
-        <v>327.3027799752646</v>
+        <v>339.4925583951962</v>
       </c>
       <c r="R5">
-        <v>0.2872835440969626</v>
+        <v>0.2648557698684409</v>
       </c>
       <c r="S5">
-        <v>43.57717004066596</v>
+        <v>40.68876279220667</v>
       </c>
       <c r="T5">
-        <v>7.234924366424524</v>
+        <v>3.367809932295549</v>
       </c>
       <c r="U5">
-        <v>0.4364114545977509</v>
+        <v>0.3093664048918447</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -770,64 +770,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>199.9697638429363</v>
+        <v>150.0040590365251</v>
       </c>
       <c r="D6">
-        <v>2.993687349069581</v>
+        <v>2.945824718733939</v>
       </c>
       <c r="E6">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F6">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.452105294561828</v>
+        <v>0.4911845979432987</v>
       </c>
       <c r="H6">
-        <v>421.5290377910892</v>
+        <v>400.5402158554618</v>
       </c>
       <c r="I6">
-        <v>691.1596060590019</v>
+        <v>714.2989636788363</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.444525773674113</v>
+        <v>1091.286506320242</v>
       </c>
       <c r="L6">
-        <v>11.31220036617622</v>
+        <v>0.01883923410244451</v>
       </c>
       <c r="M6">
-        <v>181.8025204163762</v>
+        <v>207</v>
       </c>
       <c r="N6">
-        <v>58.07344461271131</v>
+        <v>38.07147763434283</v>
       </c>
       <c r="O6">
-        <v>5.773160435479791</v>
+        <v>5.015164867969454</v>
       </c>
       <c r="P6">
-        <v>47.38508566365807</v>
+        <v>60.1921874041304</v>
       </c>
       <c r="Q6">
-        <v>330.6135562856573</v>
+        <v>332.7485397702682</v>
       </c>
       <c r="R6">
-        <v>0.8377781105360464</v>
+        <v>0.6756085755656613</v>
       </c>
       <c r="S6">
-        <v>40.30135273475616</v>
+        <v>203.5708947347473</v>
       </c>
       <c r="T6">
-        <v>4.253476634382275</v>
+        <v>5.892186520204291</v>
       </c>
       <c r="U6">
-        <v>0.3523652155312493</v>
+        <v>0.5061432852179961</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>208.5793730368678</v>
+        <v>159.0304321322526</v>
       </c>
       <c r="D7">
-        <v>2.940090227275813</v>
+        <v>2.949374938216952</v>
       </c>
       <c r="E7">
-        <v>1068</v>
+        <v>1097</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>0.4656217249781558</v>
+        <v>0.468885447377657</v>
       </c>
       <c r="H7">
-        <v>408.7506264283886</v>
+        <v>407.838373083415</v>
       </c>
       <c r="I7">
-        <v>731.9704762680924</v>
+        <v>733.1089445326807</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>337.1442699842179</v>
+        <v>433.0887443093823</v>
       </c>
       <c r="L7">
-        <v>23.37787594419949</v>
+        <v>0.5094435984909514</v>
       </c>
       <c r="M7">
-        <v>206.8901354302266</v>
+        <v>206.9892309984288</v>
       </c>
       <c r="N7">
-        <v>61.52758017441667</v>
+        <v>31.76184479679495</v>
       </c>
       <c r="O7">
-        <v>5.298913402961989</v>
+        <v>5.211831880583214</v>
       </c>
       <c r="P7">
-        <v>52.25538033639615</v>
+        <v>57.63921358378548</v>
       </c>
       <c r="Q7">
-        <v>324.0784435120667</v>
+        <v>362.6055419320071</v>
       </c>
       <c r="R7">
-        <v>0.8215818767776132</v>
+        <v>0.4511206407617894</v>
       </c>
       <c r="S7">
-        <v>86.27424755970461</v>
+        <v>140.6675566586745</v>
       </c>
       <c r="T7">
-        <v>7.78143421240347</v>
+        <v>5.608918543241679</v>
       </c>
       <c r="U7">
-        <v>0.4233249424437289</v>
+        <v>0.5025366471012496</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -903,61 +903,61 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>184.7833245123469</v>
+        <v>178.7925970589985</v>
       </c>
       <c r="D8">
-        <v>3.315923474871284</v>
+        <v>3.259273065056111</v>
       </c>
       <c r="E8">
-        <v>1121</v>
+        <v>1044</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G8">
-        <v>0.4487373415155948</v>
+        <v>0.4446145110135387</v>
       </c>
       <c r="H8">
-        <v>408.1961905928968</v>
+        <v>429.8214531462909</v>
       </c>
       <c r="I8">
-        <v>775.7384327191425</v>
+        <v>707.9584950150155</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>284.9789497105446</v>
+        <v>0.7458744999263921</v>
       </c>
       <c r="L8">
-        <v>307.1006746679225</v>
+        <v>267.7445062073508</v>
       </c>
       <c r="M8">
-        <v>181.5014287080205</v>
+        <v>181.4857852920148</v>
       </c>
       <c r="N8">
-        <v>39.39360437063573</v>
+        <v>37.00974684959713</v>
       </c>
       <c r="O8">
-        <v>5.408291061364841</v>
+        <v>5.843295468648867</v>
       </c>
       <c r="P8">
-        <v>46.70653033924809</v>
+        <v>56.64470023224704</v>
       </c>
       <c r="Q8">
-        <v>326.5044200361705</v>
+        <v>367.3536926556824</v>
       </c>
       <c r="R8">
-        <v>0.5272677089517639</v>
+        <v>0.3155314415066001</v>
       </c>
       <c r="S8">
-        <v>69.6126047465936</v>
+        <v>101.2842485951737</v>
       </c>
       <c r="T8">
-        <v>9.501489038100415</v>
+        <v>5.209974877881979</v>
       </c>
       <c r="U8">
-        <v>0.5266282028897831</v>
+        <v>0.4587446324233557</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -968,61 +968,61 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>150.0009779596725</v>
+        <v>172.5157555768956</v>
       </c>
       <c r="D9">
-        <v>2.940000000000001</v>
+        <v>2.940197914445526</v>
       </c>
       <c r="E9">
-        <v>1500</v>
+        <v>1161</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="G9">
-        <v>0.4997899694163655</v>
+        <v>0.4727181052297272</v>
       </c>
       <c r="H9">
-        <v>421.7472762195364</v>
+        <v>423.3021082524633</v>
       </c>
       <c r="I9">
-        <v>631.0050993795877</v>
+        <v>656.4126387402864</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>311.5301044030552</v>
+        <v>1.043047112934359</v>
       </c>
       <c r="L9">
-        <v>1.429030986786904</v>
+        <v>56.0810123361667</v>
       </c>
       <c r="M9">
-        <v>207</v>
+        <v>206.9999989497244</v>
       </c>
       <c r="N9">
-        <v>59.68560751327938</v>
+        <v>57.23263022168048</v>
       </c>
       <c r="O9">
-        <v>5.000069667506454</v>
+        <v>5.361395945358193</v>
       </c>
       <c r="P9">
-        <v>60.36490823949784</v>
+        <v>55.03420983253009</v>
       </c>
       <c r="Q9">
-        <v>355.0425985203444</v>
+        <v>335.8106937948871</v>
       </c>
       <c r="R9">
-        <v>0.4220812521826257</v>
+        <v>0.8137365003001485</v>
       </c>
       <c r="S9">
-        <v>51.19023837539103</v>
+        <v>42.86286263458574</v>
       </c>
       <c r="T9">
-        <v>4.618660134789984</v>
+        <v>3.45606427908817</v>
       </c>
       <c r="U9">
-        <v>0.4104421850315845</v>
+        <v>0.3236186609224128</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1033,61 +1033,61 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>194.0164451657563</v>
+        <v>150.2032182939936</v>
       </c>
       <c r="D10">
-        <v>3.49737174729504</v>
+        <v>2.94</v>
       </c>
       <c r="E10">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F10">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>0.4382728867527431</v>
+        <v>0.4990426515628379</v>
       </c>
       <c r="H10">
-        <v>426.681957898068</v>
+        <v>401.0928469211012</v>
       </c>
       <c r="I10">
-        <v>767.9066744287023</v>
+        <v>672.9687239049149</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7625116870902234</v>
+        <v>390.1371124277247</v>
       </c>
       <c r="L10">
-        <v>1035.326095641952</v>
+        <v>40.8221421666606</v>
       </c>
       <c r="M10">
-        <v>181.4840652288863</v>
+        <v>207</v>
       </c>
       <c r="N10">
-        <v>36.48804585544747</v>
+        <v>51.52412059147551</v>
       </c>
       <c r="O10">
-        <v>5.936760223110452</v>
+        <v>5.000137363710237</v>
       </c>
       <c r="P10">
-        <v>32.96262532246143</v>
+        <v>60.33527290646088</v>
       </c>
       <c r="Q10">
-        <v>323.2891542727751</v>
+        <v>321.3053649368218</v>
       </c>
       <c r="R10">
-        <v>0.5244774132444009</v>
+        <v>0.07323904606932466</v>
       </c>
       <c r="S10">
-        <v>67.80232227607398</v>
+        <v>153.8892431015751</v>
       </c>
       <c r="T10">
-        <v>3.4824201234342</v>
+        <v>8.40759039564575</v>
       </c>
       <c r="U10">
-        <v>0.4232029729292766</v>
+        <v>0.4862925778774363</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1098,61 +1098,61 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>157.0900651508431</v>
+        <v>213.7698725216879</v>
       </c>
       <c r="D11">
-        <v>2.940063961888068</v>
+        <v>3.922752832627971</v>
       </c>
       <c r="E11">
-        <v>1489</v>
+        <v>1044</v>
       </c>
       <c r="F11">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G11">
-        <v>0.4828326504306877</v>
+        <v>0.4362418011832495</v>
       </c>
       <c r="H11">
-        <v>415.4174927627635</v>
+        <v>414.1604678526912</v>
       </c>
       <c r="I11">
-        <v>691.0588535698653</v>
+        <v>743.3332696769174</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.58160560345883</v>
+        <v>0.04203232847800163</v>
       </c>
       <c r="L11">
-        <v>4.599477502668847</v>
+        <v>6.372143533698085</v>
       </c>
       <c r="M11">
-        <v>206.9999999999999</v>
+        <v>181.4840437156188</v>
       </c>
       <c r="N11">
-        <v>58.79142617069547</v>
+        <v>49.22557529654178</v>
       </c>
       <c r="O11">
-        <v>5.08298537527051</v>
+        <v>6.399446918769224</v>
       </c>
       <c r="P11">
-        <v>58.69623203351265</v>
+        <v>55.61534097586773</v>
       </c>
       <c r="Q11">
-        <v>321.518864315932</v>
+        <v>404.6120269783305</v>
       </c>
       <c r="R11">
-        <v>0.700724987178057</v>
+        <v>0.8022678518620591</v>
       </c>
       <c r="S11">
-        <v>65.39163659718142</v>
+        <v>47.11382045161154</v>
       </c>
       <c r="T11">
-        <v>5.87730649151505</v>
+        <v>3.978872504549892</v>
       </c>
       <c r="U11">
-        <v>0.4349647171800375</v>
+        <v>0.433739596099187</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1163,61 +1163,61 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>207.6145002242299</v>
+        <v>152.3622650168509</v>
       </c>
       <c r="D12">
-        <v>8.12411909035432</v>
+        <v>2.940003113453757</v>
       </c>
       <c r="E12">
-        <v>1044</v>
+        <v>1493</v>
       </c>
       <c r="F12">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>0.4282244674020961</v>
+        <v>0.4907558889909936</v>
       </c>
       <c r="H12">
-        <v>403.7212818149737</v>
+        <v>412.6443200887882</v>
       </c>
       <c r="I12">
-        <v>786.1892083374535</v>
+        <v>648.837390638889</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>98.44462001723709</v>
+        <v>230.1938024910396</v>
       </c>
       <c r="L12">
-        <v>106.4060020938333</v>
+        <v>5.238114650810373</v>
       </c>
       <c r="M12">
-        <v>181.4840437155992</v>
+        <v>207</v>
       </c>
       <c r="N12">
-        <v>30.9337131544421</v>
+        <v>50.25547758531205</v>
       </c>
       <c r="O12">
-        <v>6.817479360862628</v>
+        <v>5.062416756369709</v>
       </c>
       <c r="P12">
-        <v>43.71684045132524</v>
+        <v>57.06412866457031</v>
       </c>
       <c r="Q12">
-        <v>321.1887332770584</v>
+        <v>339.7957761569066</v>
       </c>
       <c r="R12">
-        <v>0.8324533630167912</v>
+        <v>0.4723429473527744</v>
       </c>
       <c r="S12">
-        <v>230.9049954906716</v>
+        <v>42.99263962451677</v>
       </c>
       <c r="T12">
-        <v>6.528063865895081</v>
+        <v>5.106384648491206</v>
       </c>
       <c r="U12">
-        <v>0.5007915030572274</v>
+        <v>0.4006981367713407</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1228,61 +1228,61 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>180.7593681602986</v>
+        <v>213.6684066805609</v>
       </c>
       <c r="D13">
-        <v>2.963802654835192</v>
+        <v>2.998375820120014</v>
       </c>
       <c r="E13">
         <v>1044</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>0.4529676877761191</v>
+        <v>0.4455682088671678</v>
       </c>
       <c r="H13">
-        <v>453.7820321678973</v>
+        <v>406.427040776437</v>
       </c>
       <c r="I13">
-        <v>633.4742545720701</v>
+        <v>778.039621054551</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.789796243032316E-11</v>
+        <v>119.1080603824424</v>
       </c>
       <c r="L13">
-        <v>467.3394055363053</v>
+        <v>27.12925030903867</v>
       </c>
       <c r="M13">
-        <v>206.9949768052795</v>
+        <v>181.4840732907849</v>
       </c>
       <c r="N13">
-        <v>52.42760966403375</v>
+        <v>40.55299142429229</v>
       </c>
       <c r="O13">
-        <v>5.644155155587289</v>
+        <v>5.608620461128314</v>
       </c>
       <c r="P13">
-        <v>56.34642809874122</v>
+        <v>48.52468921659476</v>
       </c>
       <c r="Q13">
-        <v>418.6117563530603</v>
+        <v>344.0352750121201</v>
       </c>
       <c r="R13">
-        <v>0.3139010858235746</v>
+        <v>0.7574972560807945</v>
       </c>
       <c r="S13">
-        <v>39.1025394603672</v>
+        <v>249.0607152084753</v>
       </c>
       <c r="T13">
-        <v>4.38957992333666</v>
+        <v>9.302603097034858</v>
       </c>
       <c r="U13">
-        <v>0.3933643084204883</v>
+        <v>0.5022954157897697</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1293,61 +1293,61 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>220.4243723311487</v>
+        <v>193.5627049079112</v>
       </c>
       <c r="D14">
-        <v>2.9416154848266</v>
+        <v>3.113096971898921</v>
       </c>
       <c r="E14">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F14">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="G14">
-        <v>0.4410933478381463</v>
+        <v>0.4488201657010242</v>
       </c>
       <c r="H14">
-        <v>414.1572997691546</v>
+        <v>414.9043296890397</v>
       </c>
       <c r="I14">
-        <v>760.0721569477829</v>
+        <v>753.4896754018514</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>242.1210732623653</v>
+        <v>1.975568276313017</v>
       </c>
       <c r="L14">
-        <v>14.69904774948518</v>
+        <v>588.4113357685039</v>
       </c>
       <c r="M14">
-        <v>181.484043749605</v>
+        <v>181.5045588089159</v>
       </c>
       <c r="N14">
-        <v>38.64675682287712</v>
+        <v>40.43182920263776</v>
       </c>
       <c r="O14">
-        <v>6.075872327495939</v>
+        <v>5.633010696195075</v>
       </c>
       <c r="P14">
-        <v>50.19331034613444</v>
+        <v>43.10920308713175</v>
       </c>
       <c r="Q14">
-        <v>323.8189251367453</v>
+        <v>336.3985357209724</v>
       </c>
       <c r="R14">
-        <v>0.7186478590904034</v>
+        <v>0.7933274958856273</v>
       </c>
       <c r="S14">
-        <v>156.0338193248327</v>
+        <v>64.84843950244746</v>
       </c>
       <c r="T14">
-        <v>5.027571767669885</v>
+        <v>4.565769700043382</v>
       </c>
       <c r="U14">
-        <v>0.3939260406608944</v>
+        <v>0.3770517222178755</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1358,61 +1358,61 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>153.2118364490053</v>
+        <v>197.7739110205705</v>
       </c>
       <c r="D15">
-        <v>2.940000000476037</v>
+        <v>2.962222648585489</v>
       </c>
       <c r="E15">
-        <v>1500</v>
+        <v>1047</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>0.4969180829929267</v>
+        <v>0.4524695994606275</v>
       </c>
       <c r="H15">
-        <v>403.0434672869778</v>
+        <v>410.8240135207257</v>
       </c>
       <c r="I15">
-        <v>671.7020488621114</v>
+        <v>748.6380451765478</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>127.6867316273237</v>
+        <v>350.4676220133982</v>
       </c>
       <c r="L15">
-        <v>4.872540621010949</v>
+        <v>0.7258433336143257</v>
       </c>
       <c r="M15">
-        <v>207</v>
+        <v>182.7996433572769</v>
       </c>
       <c r="N15">
-        <v>60.52306725669428</v>
+        <v>40.19202262817269</v>
       </c>
       <c r="O15">
-        <v>5.008773695714146</v>
+        <v>5.422064270039719</v>
       </c>
       <c r="P15">
-        <v>57.67419243145269</v>
+        <v>57.48326379572639</v>
       </c>
       <c r="Q15">
-        <v>330.7387265751083</v>
+        <v>347.5764292811749</v>
       </c>
       <c r="R15">
-        <v>0.4120635554957178</v>
+        <v>0.6550881855479119</v>
       </c>
       <c r="S15">
-        <v>47.69430152106359</v>
+        <v>120.158935372946</v>
       </c>
       <c r="T15">
-        <v>3.536327816843969</v>
+        <v>5.807281114869522</v>
       </c>
       <c r="U15">
-        <v>0.3854567687627077</v>
+        <v>0.4635593029817475</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1423,61 +1423,61 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>194.3653177392698</v>
+        <v>202.8181482427898</v>
       </c>
       <c r="D16">
-        <v>2.940000000515538</v>
+        <v>6.176519421664817</v>
       </c>
       <c r="E16">
-        <v>1475</v>
+        <v>1044</v>
       </c>
       <c r="F16">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G16">
-        <v>0.485216855297702</v>
+        <v>0.4334308137970565</v>
       </c>
       <c r="H16">
-        <v>404.9612227433936</v>
+        <v>420.4355751171956</v>
       </c>
       <c r="I16">
-        <v>698.6221457651625</v>
+        <v>730.2168189345106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>661.9938140884698</v>
+        <v>245.8664754799725</v>
       </c>
       <c r="L16">
-        <v>142.927818390399</v>
+        <v>1.40328800020182</v>
       </c>
       <c r="M16">
-        <v>206.9999999999999</v>
+        <v>181.4840437155997</v>
       </c>
       <c r="N16">
-        <v>63.52015440441014</v>
+        <v>33.51748086724965</v>
       </c>
       <c r="O16">
-        <v>5.048347727437146</v>
+        <v>6.777665515719727</v>
       </c>
       <c r="P16">
-        <v>45.38694358769501</v>
+        <v>45.81406655143984</v>
       </c>
       <c r="Q16">
-        <v>322.8467766253296</v>
+        <v>415.1477960805061</v>
       </c>
       <c r="R16">
-        <v>0.5990622379288493</v>
+        <v>0.8459866461783656</v>
       </c>
       <c r="S16">
-        <v>42.55607090861921</v>
+        <v>64.86164494165313</v>
       </c>
       <c r="T16">
-        <v>6.536613524688741</v>
+        <v>3.170948604753056</v>
       </c>
       <c r="U16">
-        <v>0.4513253116093878</v>
+        <v>0.4035888455844321</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1488,61 +1488,61 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>185.5558860397866</v>
+        <v>170.5641467309502</v>
       </c>
       <c r="D17">
-        <v>2.953035360839135</v>
+        <v>2.944327686302887</v>
       </c>
       <c r="E17">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="F17">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G17">
-        <v>0.4519516636791836</v>
+        <v>0.4616743992568306</v>
       </c>
       <c r="H17">
-        <v>413.1382629193913</v>
+        <v>427.8967115621649</v>
       </c>
       <c r="I17">
-        <v>744.5106020977416</v>
+        <v>664.1748879996779</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>238.1404526167225</v>
+        <v>0.01673305369008128</v>
       </c>
       <c r="L17">
-        <v>9.617508031249697</v>
+        <v>0.001682249594964353</v>
       </c>
       <c r="M17">
-        <v>190.6071270828595</v>
+        <v>206.9996995857332</v>
       </c>
       <c r="N17">
-        <v>38.01243178749799</v>
+        <v>42.84988798427139</v>
       </c>
       <c r="O17">
-        <v>5.416710812415866</v>
+        <v>5.482336650544592</v>
       </c>
       <c r="P17">
-        <v>52.32670078900421</v>
+        <v>60.31052222237805</v>
       </c>
       <c r="Q17">
-        <v>333.5197185749136</v>
+        <v>322.7079165363403</v>
       </c>
       <c r="R17">
-        <v>0.5938910516736532</v>
+        <v>0.8000800959744104</v>
       </c>
       <c r="S17">
-        <v>192.1529689083775</v>
+        <v>39.54252507246623</v>
       </c>
       <c r="T17">
-        <v>5.191969057754758</v>
+        <v>3.080636351774029</v>
       </c>
       <c r="U17">
-        <v>0.5020839377396045</v>
+        <v>0.3106987052296959</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1553,61 +1553,61 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>215.230011677412</v>
+        <v>176.6536527550705</v>
       </c>
       <c r="D18">
-        <v>3.788024736996722</v>
+        <v>2.940001606556378</v>
       </c>
       <c r="E18">
-        <v>1044</v>
+        <v>1242</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G18">
-        <v>0.4307553120922598</v>
+        <v>0.4782352845054909</v>
       </c>
       <c r="H18">
-        <v>429.8512255195249</v>
+        <v>419.1012164651413</v>
       </c>
       <c r="I18">
-        <v>726.5000558196489</v>
+        <v>657.636624054738</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.01398802391473695</v>
+        <v>77.5372464060037</v>
       </c>
       <c r="L18">
-        <v>207.8245379576444</v>
+        <v>60.74117279255247</v>
       </c>
       <c r="M18">
-        <v>181.4840437155996</v>
+        <v>206.9999999999703</v>
       </c>
       <c r="N18">
-        <v>39.41723237996442</v>
+        <v>50.30504184163729</v>
       </c>
       <c r="O18">
-        <v>6.782014080918558</v>
+        <v>5.162792588652385</v>
       </c>
       <c r="P18">
-        <v>26.21914557131504</v>
+        <v>57.62808154971093</v>
       </c>
       <c r="Q18">
-        <v>388.9401777132218</v>
+        <v>382.7225962459631</v>
       </c>
       <c r="R18">
-        <v>0.7820079640091298</v>
+        <v>0.6785216368182925</v>
       </c>
       <c r="S18">
-        <v>55.7636458325541</v>
+        <v>51.39556216253637</v>
       </c>
       <c r="T18">
-        <v>5.07040445109474</v>
+        <v>4.388369010569185</v>
       </c>
       <c r="U18">
-        <v>0.3930023948318848</v>
+        <v>0.4135229650946004</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1618,61 +1618,61 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>176.1989383652249</v>
+        <v>189.2986557204243</v>
       </c>
       <c r="D19">
-        <v>3.225494088198984</v>
+        <v>10.158513766303</v>
       </c>
       <c r="E19">
         <v>1044</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G19">
-        <v>0.4421971873194837</v>
+        <v>0.4282274329041956</v>
       </c>
       <c r="H19">
-        <v>443.9947462023417</v>
+        <v>414.1519861745853</v>
       </c>
       <c r="I19">
-        <v>656.6167352531162</v>
+        <v>783.5306048136011</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.03586673005194954</v>
+        <v>0.06818164694920684</v>
       </c>
       <c r="L19">
-        <v>536.7424690648459</v>
+        <v>612.8300481227344</v>
       </c>
       <c r="M19">
-        <v>182.4081812125313</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N19">
-        <v>37.94634144357455</v>
+        <v>30.79651112690346</v>
       </c>
       <c r="O19">
-        <v>5.945200166595081</v>
+        <v>6.964344614560012</v>
       </c>
       <c r="P19">
-        <v>48.04427722541082</v>
+        <v>17.07209001811158</v>
       </c>
       <c r="Q19">
-        <v>415.6673886590747</v>
+        <v>331.2542458885877</v>
       </c>
       <c r="R19">
-        <v>0.5361300823764019</v>
+        <v>0.7356991291490925</v>
       </c>
       <c r="S19">
-        <v>42.05367590214644</v>
+        <v>55.33053880631725</v>
       </c>
       <c r="T19">
-        <v>3.542928913501435</v>
+        <v>9.603211085459501</v>
       </c>
       <c r="U19">
-        <v>0.3990287596945452</v>
+        <v>0.4310658037655788</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1683,61 +1683,61 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>195.9574337111248</v>
+        <v>152.4922133946679</v>
       </c>
       <c r="D20">
-        <v>2.940028600098847</v>
+        <v>4.256646889099305</v>
       </c>
       <c r="E20">
-        <v>1356</v>
+        <v>1069</v>
       </c>
       <c r="F20">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G20">
-        <v>0.4664648504521882</v>
+        <v>0.4537425033785126</v>
       </c>
       <c r="H20">
-        <v>403.0206287963163</v>
+        <v>403.8901986116896</v>
       </c>
       <c r="I20">
-        <v>765.3277166667804</v>
+        <v>779.7619036658148</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>60.41884555241133</v>
+        <v>572.5290282412483</v>
       </c>
       <c r="L20">
-        <v>176.7704337797311</v>
+        <v>84.24346551396404</v>
       </c>
       <c r="M20">
-        <v>206.9997245109294</v>
+        <v>190.9186074787349</v>
       </c>
       <c r="N20">
-        <v>55.65103444829857</v>
+        <v>36.6564444009237</v>
       </c>
       <c r="O20">
-        <v>5.083371488898401</v>
+        <v>5.327195609880171</v>
       </c>
       <c r="P20">
-        <v>57.74168112479466</v>
+        <v>54.2065548795502</v>
       </c>
       <c r="Q20">
-        <v>321.241905190735</v>
+        <v>322.2057381432815</v>
       </c>
       <c r="R20">
-        <v>0.5001624495815333</v>
+        <v>0.5787659293132021</v>
       </c>
       <c r="S20">
-        <v>153.6604155386749</v>
+        <v>147.9488073277029</v>
       </c>
       <c r="T20">
-        <v>10.04703828615975</v>
+        <v>6.6558240861137</v>
       </c>
       <c r="U20">
-        <v>0.543841623248625</v>
+        <v>0.4966528964646817</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1748,61 +1748,61 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>187.856819242481</v>
+        <v>200.7243099543863</v>
       </c>
       <c r="D21">
-        <v>3.216568350472603</v>
+        <v>2.940025181031168</v>
       </c>
       <c r="E21">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G21">
-        <v>0.4502482559910204</v>
+        <v>0.4685116844766281</v>
       </c>
       <c r="H21">
-        <v>399.6116441131815</v>
+        <v>415.7441794222375</v>
       </c>
       <c r="I21">
-        <v>778.0773454677164</v>
+        <v>701.0968802219832</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>483.3346852385476</v>
+        <v>25.8731550277597</v>
       </c>
       <c r="L21">
-        <v>71.40642099818339</v>
+        <v>0.2911994689017641</v>
       </c>
       <c r="M21">
-        <v>181.4843783113324</v>
+        <v>206.9999716188923</v>
       </c>
       <c r="N21">
-        <v>38.5463902753113</v>
+        <v>54.70866824973715</v>
       </c>
       <c r="O21">
-        <v>5.678736665145262</v>
+        <v>5.308186649026269</v>
       </c>
       <c r="P21">
-        <v>41.62695920030945</v>
+        <v>58.10744362252772</v>
       </c>
       <c r="Q21">
-        <v>321.0865155913816</v>
+        <v>392.1344005857578</v>
       </c>
       <c r="R21">
-        <v>0.8471086058920813</v>
+        <v>0.5972194171741695</v>
       </c>
       <c r="S21">
-        <v>47.81169718112861</v>
+        <v>54.61219538048643</v>
       </c>
       <c r="T21">
-        <v>3.234889564152727</v>
+        <v>4.634583563490859</v>
       </c>
       <c r="U21">
-        <v>0.3649459186196524</v>
+        <v>0.3809065109119487</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1813,61 +1813,61 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>152.6350510364998</v>
+        <v>178.4830642394472</v>
       </c>
       <c r="D22">
-        <v>2.940613422065072</v>
+        <v>2.94005554846173</v>
       </c>
       <c r="E22">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="F22">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G22">
-        <v>0.4799203491882227</v>
+        <v>0.4747463351690533</v>
       </c>
       <c r="H22">
-        <v>431.7422624293513</v>
+        <v>420.2715052264982</v>
       </c>
       <c r="I22">
-        <v>664.8445650327118</v>
+        <v>675.4494893564618</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>113.0203980813466</v>
+        <v>324.5415973625309</v>
       </c>
       <c r="L22">
-        <v>2.866398484352872</v>
+        <v>0.05462326828330285</v>
       </c>
       <c r="M22">
-        <v>206.9999999999999</v>
+        <v>206.9999999490026</v>
       </c>
       <c r="N22">
-        <v>50.62400695462858</v>
+        <v>50.80312618951934</v>
       </c>
       <c r="O22">
-        <v>5.118212230145254</v>
+        <v>5.230229991419762</v>
       </c>
       <c r="P22">
-        <v>51.82593345873833</v>
+        <v>58.65033733890674</v>
       </c>
       <c r="Q22">
-        <v>321.7851085617722</v>
+        <v>373.9698412586725</v>
       </c>
       <c r="R22">
-        <v>0.1747819641663511</v>
+        <v>0.3740059357905848</v>
       </c>
       <c r="S22">
-        <v>44.89921278113621</v>
+        <v>91.90274092319228</v>
       </c>
       <c r="T22">
-        <v>6.333066735124103</v>
+        <v>5.121384249848292</v>
       </c>
       <c r="U22">
-        <v>0.3661296595687582</v>
+        <v>0.4291860209253406</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1875,64 +1875,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>150.1720431547371</v>
+        <v>151.0850851829026</v>
       </c>
       <c r="D23">
-        <v>2.94404942972771</v>
+        <v>2.940000003592659</v>
       </c>
       <c r="E23">
-        <v>1442</v>
+        <v>1500</v>
       </c>
       <c r="F23">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>0.4924691555399355</v>
+        <v>0.495398393899683</v>
       </c>
       <c r="H23">
-        <v>382.8642704672127</v>
+        <v>417.4748773162364</v>
       </c>
       <c r="I23">
-        <v>756.7656897983933</v>
+        <v>650.8220087287592</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>489.853329448942</v>
+        <v>550.0909102270361</v>
       </c>
       <c r="L23">
-        <v>823.9406187884599</v>
+        <v>0.56605361928662</v>
       </c>
       <c r="M23">
         <v>207</v>
       </c>
       <c r="N23">
-        <v>49.28575044923853</v>
+        <v>48.73317966030499</v>
       </c>
       <c r="O23">
-        <v>5.007227718247764</v>
+        <v>5.018983019085358</v>
       </c>
       <c r="P23">
-        <v>40.32770519280598</v>
+        <v>59.49233771341202</v>
       </c>
       <c r="Q23">
-        <v>321.4436829277038</v>
+        <v>366.460404178374</v>
       </c>
       <c r="R23">
-        <v>0.5884373630584462</v>
+        <v>0.466541062281493</v>
       </c>
       <c r="S23">
-        <v>45.09887705264708</v>
+        <v>39.46268680913322</v>
       </c>
       <c r="T23">
-        <v>11.85765270713165</v>
+        <v>2.971513134839186</v>
       </c>
       <c r="U23">
-        <v>0.5376957474566975</v>
+        <v>0.3516538343246489</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1943,61 +1943,61 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>151.8918511745133</v>
+        <v>150.1542984163881</v>
       </c>
       <c r="D24">
-        <v>3.231182692740362</v>
+        <v>2.940000000131439</v>
       </c>
       <c r="E24">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F24">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>0.4636104096929881</v>
+        <v>0.4974470017200746</v>
       </c>
       <c r="H24">
-        <v>425.8866332982013</v>
+        <v>411.3432339657552</v>
       </c>
       <c r="I24">
-        <v>660.9579155538054</v>
+        <v>653.4243900814653</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>47.50562620054806</v>
+        <v>514.7513749667353</v>
       </c>
       <c r="L24">
-        <v>64.16740084820172</v>
+        <v>383.5263480862983</v>
       </c>
       <c r="M24">
-        <v>206.9941691266061</v>
+        <v>207</v>
       </c>
       <c r="N24">
-        <v>32.28511272980756</v>
+        <v>51.95682256422096</v>
       </c>
       <c r="O24">
-        <v>5.494234462631974</v>
+        <v>5.00261732155443</v>
       </c>
       <c r="P24">
-        <v>48.42051848060511</v>
+        <v>54.88111829019876</v>
       </c>
       <c r="Q24">
-        <v>405.0033290459463</v>
+        <v>373.6857404487563</v>
       </c>
       <c r="R24">
-        <v>0.7843577565259567</v>
+        <v>0.2311327875388194</v>
       </c>
       <c r="S24">
-        <v>75.70159348378048</v>
+        <v>57.58500412657862</v>
       </c>
       <c r="T24">
-        <v>3.261886395643617</v>
+        <v>7.192922911107368</v>
       </c>
       <c r="U24">
-        <v>0.422098238183644</v>
+        <v>0.4674503475310656</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2008,61 +2008,61 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>214.4808703004799</v>
+        <v>150.1597086945391</v>
       </c>
       <c r="D25">
-        <v>5.58687878347391</v>
+        <v>2.940000002324973</v>
       </c>
       <c r="E25">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F25">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>0.4275030994757447</v>
+        <v>0.4970834480026512</v>
       </c>
       <c r="H25">
-        <v>424.0599749137259</v>
+        <v>399.2059428315631</v>
       </c>
       <c r="I25">
-        <v>778.9033516845899</v>
+        <v>725.8181337512502</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.179232113013648</v>
+        <v>1004.411180435051</v>
       </c>
       <c r="L25">
-        <v>77.59665405649564</v>
+        <v>0.04936973528437984</v>
       </c>
       <c r="M25">
-        <v>181.4840437155992</v>
+        <v>207</v>
       </c>
       <c r="N25">
-        <v>30.26555819823419</v>
+        <v>57.08743990706683</v>
       </c>
       <c r="O25">
-        <v>6.694680723784108</v>
+        <v>5.00047438705333</v>
       </c>
       <c r="P25">
-        <v>55.53512746129038</v>
+        <v>60.38634336096492</v>
       </c>
       <c r="Q25">
-        <v>358.2134985838264</v>
+        <v>326.2821207372893</v>
       </c>
       <c r="R25">
-        <v>0.3334724548718899</v>
+        <v>0.05752727592070745</v>
       </c>
       <c r="S25">
-        <v>260.6575097284781</v>
+        <v>57.1797925395276</v>
       </c>
       <c r="T25">
-        <v>10.17535775391196</v>
+        <v>9.408294390005331</v>
       </c>
       <c r="U25">
-        <v>0.5460373791818618</v>
+        <v>0.4951015729549104</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2073,61 +2073,61 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>174.5704744454645</v>
+        <v>212.1193265242233</v>
       </c>
       <c r="D26">
-        <v>2.940124816166457</v>
+        <v>6.417000199620944</v>
       </c>
       <c r="E26">
-        <v>1321</v>
+        <v>1044</v>
       </c>
       <c r="F26">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>0.468034240554232</v>
+        <v>0.4287050322488872</v>
       </c>
       <c r="H26">
-        <v>431.566417679712</v>
+        <v>421.2686982314569</v>
       </c>
       <c r="I26">
-        <v>666.6274468671</v>
+        <v>746.1454614274558</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>4.227021906280767</v>
+        <v>0.4484647945167403</v>
       </c>
       <c r="L26">
-        <v>21.86570858880269</v>
+        <v>6.408128337690852</v>
       </c>
       <c r="M26">
-        <v>206.9999999709439</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N26">
-        <v>33.80303556568509</v>
+        <v>31.00853094924833</v>
       </c>
       <c r="O26">
-        <v>5.226956059456128</v>
+        <v>6.977247228169771</v>
       </c>
       <c r="P26">
-        <v>59.20236553322781</v>
+        <v>47.9268516265377</v>
       </c>
       <c r="Q26">
-        <v>352.6421002216539</v>
+        <v>412.2672357333203</v>
       </c>
       <c r="R26">
-        <v>0.1447567534819898</v>
+        <v>0.5270500487280412</v>
       </c>
       <c r="S26">
-        <v>44.03699367255408</v>
+        <v>50.33192465080664</v>
       </c>
       <c r="T26">
-        <v>5.272208927706616</v>
+        <v>3.783102283631754</v>
       </c>
       <c r="U26">
-        <v>0.3855614007868486</v>
+        <v>0.4533159582369091</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2135,64 +2135,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>211.6717990053471</v>
+        <v>158.8070985319</v>
       </c>
       <c r="D27">
-        <v>6.202755951363937</v>
+        <v>4.322803583243314</v>
       </c>
       <c r="E27">
         <v>1044</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G27">
-        <v>0.430878763313829</v>
+        <v>0.4494749431454036</v>
       </c>
       <c r="H27">
-        <v>406.5064748657439</v>
+        <v>427.723376508631</v>
       </c>
       <c r="I27">
-        <v>780.8449911750705</v>
+        <v>668.8324426320362</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>173.1992002834392</v>
+        <v>31.78644885348211</v>
       </c>
       <c r="L27">
-        <v>20.71666780776988</v>
+        <v>32.51013342015264</v>
       </c>
       <c r="M27">
-        <v>181.4840437155992</v>
+        <v>181.4847003317674</v>
       </c>
       <c r="N27">
-        <v>40.88983085337448</v>
+        <v>30.4894443667091</v>
       </c>
       <c r="O27">
-        <v>6.666559769894357</v>
+        <v>6.371351827438435</v>
       </c>
       <c r="P27">
-        <v>43.06400689486478</v>
+        <v>50.13291424007355</v>
       </c>
       <c r="Q27">
-        <v>321.8798557439188</v>
+        <v>372.3218299204156</v>
       </c>
       <c r="R27">
-        <v>0.8497835869046471</v>
+        <v>0.8228097180401566</v>
       </c>
       <c r="S27">
-        <v>55.31380744916869</v>
+        <v>54.96984730200718</v>
       </c>
       <c r="T27">
-        <v>3.527948018709662</v>
+        <v>2.822662557931089</v>
       </c>
       <c r="U27">
-        <v>0.4570049597527066</v>
+        <v>0.3056312280670579</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2203,61 +2203,61 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>170.9266716758908</v>
+        <v>154.2439508877475</v>
       </c>
       <c r="D28">
-        <v>3.592421804956959</v>
+        <v>2.94</v>
       </c>
       <c r="E28">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F28">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>0.4440647891740599</v>
+        <v>0.4991024069651477</v>
       </c>
       <c r="H28">
-        <v>422.2558365740449</v>
+        <v>403.1684367644029</v>
       </c>
       <c r="I28">
-        <v>741.4563627628679</v>
+        <v>647.6099301982946</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>21.3842043640028</v>
+        <v>692.8028826867456</v>
       </c>
       <c r="L28">
-        <v>252.02010391668</v>
+        <v>0.6967133727409508</v>
       </c>
       <c r="M28">
-        <v>181.4888601452697</v>
+        <v>207</v>
       </c>
       <c r="N28">
-        <v>32.86727837139802</v>
+        <v>56.66576902893003</v>
       </c>
       <c r="O28">
-        <v>5.760494115176206</v>
+        <v>5.000442333251998</v>
       </c>
       <c r="P28">
-        <v>49.95821999739619</v>
+        <v>59.67093500091446</v>
       </c>
       <c r="Q28">
-        <v>371.8774476090048</v>
+        <v>323.8583645523756</v>
       </c>
       <c r="R28">
-        <v>0.1209822401924625</v>
+        <v>0.2896581402671628</v>
       </c>
       <c r="S28">
-        <v>126.3402638529517</v>
+        <v>125.6215092151715</v>
       </c>
       <c r="T28">
-        <v>5.430211676682577</v>
+        <v>5.284303838464937</v>
       </c>
       <c r="U28">
-        <v>0.4724752267201637</v>
+        <v>0.4509837971630757</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2268,61 +2268,61 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>150.9533846581235</v>
+        <v>150.1263883220321</v>
       </c>
       <c r="D29">
-        <v>2.94</v>
+        <v>2.940000000004429</v>
       </c>
       <c r="E29">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G29">
-        <v>0.4998177341437727</v>
+        <v>0.4983224902883536</v>
       </c>
       <c r="H29">
-        <v>398.3600307446873</v>
+        <v>431.7066803599287</v>
       </c>
       <c r="I29">
-        <v>665.0105672903583</v>
+        <v>630.194039064922</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>577.8297301621709</v>
+        <v>0.59528930574454</v>
       </c>
       <c r="L29">
-        <v>23.52539443259135</v>
+        <v>171.8002862379069</v>
       </c>
       <c r="M29">
         <v>207</v>
       </c>
       <c r="N29">
-        <v>63.85212573400903</v>
+        <v>62.35396799086848</v>
       </c>
       <c r="O29">
-        <v>5.000008314909191</v>
+        <v>5.009740316910528</v>
       </c>
       <c r="P29">
-        <v>60.27900333259515</v>
+        <v>58.73800301539513</v>
       </c>
       <c r="Q29">
-        <v>326.7011767354822</v>
+        <v>364.457009091784</v>
       </c>
       <c r="R29">
-        <v>0.413793876780418</v>
+        <v>0.34163534939345</v>
       </c>
       <c r="S29">
-        <v>46.90817736569242</v>
+        <v>39.10028358137155</v>
       </c>
       <c r="T29">
-        <v>8.839837753540056</v>
+        <v>2.817063267069286</v>
       </c>
       <c r="U29">
-        <v>0.4347823161904258</v>
+        <v>0.2434778939173221</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2333,61 +2333,61 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>150.0019943286806</v>
+        <v>178.7930620839228</v>
       </c>
       <c r="D30">
-        <v>2.940000000000016</v>
+        <v>2.940578378850664</v>
       </c>
       <c r="E30">
-        <v>1500</v>
+        <v>1057</v>
       </c>
       <c r="F30">
         <v>56</v>
       </c>
       <c r="G30">
-        <v>0.4995374362176146</v>
+        <v>0.4671686249153615</v>
       </c>
       <c r="H30">
-        <v>392.5426534237622</v>
+        <v>418.5916436930086</v>
       </c>
       <c r="I30">
-        <v>667.9550500006211</v>
+        <v>671.9132148788755</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>516.239322803462</v>
+        <v>195.0445850927328</v>
       </c>
       <c r="L30">
-        <v>144.2530760324163</v>
+        <v>6.458705317935117</v>
       </c>
       <c r="M30">
-        <v>207</v>
+        <v>206.999403687016</v>
       </c>
       <c r="N30">
-        <v>60.62245977300999</v>
+        <v>39.45371175179953</v>
       </c>
       <c r="O30">
-        <v>5.000015447418634</v>
+        <v>5.325356500692168</v>
       </c>
       <c r="P30">
-        <v>57.82558585932626</v>
+        <v>49.97899783086122</v>
       </c>
       <c r="Q30">
-        <v>321.0121198174069</v>
+        <v>345.9342928757086</v>
       </c>
       <c r="R30">
-        <v>0.521465475620968</v>
+        <v>0.5717241877749779</v>
       </c>
       <c r="S30">
-        <v>125.9293584520266</v>
+        <v>56.61336428435926</v>
       </c>
       <c r="T30">
-        <v>6.320787783714065</v>
+        <v>4.488717371875193</v>
       </c>
       <c r="U30">
-        <v>0.5015751917239171</v>
+        <v>0.4130993889619134</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2398,61 +2398,61 @@
         <v>20</v>
       </c>
       <c r="C31">
-        <v>190.0350055098519</v>
+        <v>219.4279138034926</v>
       </c>
       <c r="D31">
-        <v>4.043446564178588</v>
+        <v>2.940000000040684</v>
       </c>
       <c r="E31">
-        <v>1044</v>
+        <v>1386</v>
       </c>
       <c r="F31">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <v>0.440223891888407</v>
+        <v>0.4711593115574196</v>
       </c>
       <c r="H31">
-        <v>422.7473910267463</v>
+        <v>411.2455344700443</v>
       </c>
       <c r="I31">
-        <v>723.095889619942</v>
+        <v>734.2052457417662</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1.051677522857167</v>
+        <v>156.3000987429005</v>
       </c>
       <c r="L31">
-        <v>235.6996518889214</v>
+        <v>11.15323914642569</v>
       </c>
       <c r="M31">
-        <v>181.4840455228358</v>
+        <v>206.9999784786238</v>
       </c>
       <c r="N31">
-        <v>38.64077959439132</v>
+        <v>64.05747952528694</v>
       </c>
       <c r="O31">
-        <v>6.182737063502402</v>
+        <v>5.117509994532369</v>
       </c>
       <c r="P31">
-        <v>41.16523576396202</v>
+        <v>52.20995232341881</v>
       </c>
       <c r="Q31">
-        <v>341.6644025206189</v>
+        <v>321.8165534330203</v>
       </c>
       <c r="R31">
-        <v>0.7004674119107555</v>
+        <v>0.8002943464428272</v>
       </c>
       <c r="S31">
-        <v>68.63579050804735</v>
+        <v>42.23461626865288</v>
       </c>
       <c r="T31">
-        <v>5.643835930379252</v>
+        <v>6.250039905102216</v>
       </c>
       <c r="U31">
-        <v>0.412236754076216</v>
+        <v>0.4298939444153829</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2463,61 +2463,61 @@
         <v>20</v>
       </c>
       <c r="C32">
-        <v>150.4411045365214</v>
+        <v>158.1567835011587</v>
       </c>
       <c r="D32">
-        <v>2.940056716754842</v>
+        <v>6.189713986678571</v>
       </c>
       <c r="E32">
-        <v>1435</v>
+        <v>1044</v>
       </c>
       <c r="F32">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>0.4858124493638265</v>
+        <v>0.4360663983959027</v>
       </c>
       <c r="H32">
-        <v>422.4212743241503</v>
+        <v>434.3720348105337</v>
       </c>
       <c r="I32">
-        <v>637.2752420712796</v>
+        <v>702.6736583604892</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>20.42781346185536</v>
+        <v>15.41480262969281</v>
       </c>
       <c r="L32">
-        <v>356.493620432818</v>
+        <v>1043.827702202137</v>
       </c>
       <c r="M32">
-        <v>207</v>
+        <v>181.4840497630273</v>
       </c>
       <c r="N32">
-        <v>39.86922139864739</v>
+        <v>34.62926088689576</v>
       </c>
       <c r="O32">
-        <v>5.078666093683367</v>
+        <v>6.236421172570441</v>
       </c>
       <c r="P32">
-        <v>35.13076653379091</v>
+        <v>15.90323587835115</v>
       </c>
       <c r="Q32">
-        <v>322.5773896798627</v>
+        <v>387.8594151698887</v>
       </c>
       <c r="R32">
-        <v>0.07065325225401958</v>
+        <v>0.8155353976799332</v>
       </c>
       <c r="S32">
-        <v>39.70325829531072</v>
+        <v>126.309383990746</v>
       </c>
       <c r="T32">
-        <v>5.976858832583956</v>
+        <v>3.324158629045927</v>
       </c>
       <c r="U32">
-        <v>0.3900800328489817</v>
+        <v>0.4120978419418502</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2525,64 +2525,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>150.0000414316798</v>
+        <v>168.2913646759244</v>
       </c>
       <c r="D33">
-        <v>2.940000000383476</v>
+        <v>2.940008502042409</v>
       </c>
       <c r="E33">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G33">
-        <v>0.4994712404683023</v>
+        <v>0.4814924859861558</v>
       </c>
       <c r="H33">
-        <v>418.9787657534707</v>
+        <v>428.4162883013364</v>
       </c>
       <c r="I33">
-        <v>635.8161199651098</v>
+        <v>657.1427495439972</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>752.1795453773616</v>
+        <v>1.824984577354696</v>
       </c>
       <c r="L33">
-        <v>0.008560410605560618</v>
+        <v>7.985171710344886</v>
       </c>
       <c r="M33">
-        <v>207</v>
+        <v>206.9999999999999</v>
       </c>
       <c r="N33">
-        <v>61.84244231060788</v>
+        <v>58.08223393377001</v>
       </c>
       <c r="O33">
-        <v>5.00036116855047</v>
+        <v>5.127789405941873</v>
       </c>
       <c r="P33">
-        <v>59.72719836902962</v>
+        <v>58.9608295646651</v>
       </c>
       <c r="Q33">
-        <v>344.3023965490341</v>
+        <v>399.4837377285079</v>
       </c>
       <c r="R33">
-        <v>0.08396678864933985</v>
+        <v>0.144647771768868</v>
       </c>
       <c r="S33">
-        <v>52.81424324230877</v>
+        <v>39.1770696373186</v>
       </c>
       <c r="T33">
-        <v>3.874612456039559</v>
+        <v>4.965462841757398</v>
       </c>
       <c r="U33">
-        <v>0.3920853553766017</v>
+        <v>0.3440011617377499</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2593,61 +2593,61 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>151.0170452562076</v>
+        <v>150.8037638749583</v>
       </c>
       <c r="D34">
-        <v>2.940000000002313</v>
+        <v>2.940004210290948</v>
       </c>
       <c r="E34">
-        <v>1500</v>
+        <v>1303</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G34">
-        <v>0.4981076938730658</v>
+        <v>0.4888229061572086</v>
       </c>
       <c r="H34">
-        <v>409.6200905103767</v>
+        <v>429.3370970919705</v>
       </c>
       <c r="I34">
-        <v>652.6326322512031</v>
+        <v>648.0346544037045</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>357.6299836037637</v>
+        <v>4.320918094853991</v>
       </c>
       <c r="L34">
-        <v>0.3769342964448967</v>
+        <v>257.1933455084471</v>
       </c>
       <c r="M34">
         <v>207</v>
       </c>
       <c r="N34">
-        <v>60.62599472015194</v>
+        <v>40.4351844083571</v>
       </c>
       <c r="O34">
-        <v>5.001004229121792</v>
+        <v>5.031283960719833</v>
       </c>
       <c r="P34">
-        <v>60.1965117229179</v>
+        <v>58.32889926395686</v>
       </c>
       <c r="Q34">
-        <v>329.0666288549642</v>
+        <v>338.3123405678438</v>
       </c>
       <c r="R34">
-        <v>0.7523649622354731</v>
+        <v>0.4758449417928837</v>
       </c>
       <c r="S34">
-        <v>53.71391771730423</v>
+        <v>84.05175725055643</v>
       </c>
       <c r="T34">
-        <v>4.593845803366953</v>
+        <v>4.881953164340649</v>
       </c>
       <c r="U34">
-        <v>0.4452036959026962</v>
+        <v>0.4115089957236635</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2658,61 +2658,61 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>151.8425063271941</v>
+        <v>181.1069726623755</v>
       </c>
       <c r="D35">
-        <v>3.617065862081429</v>
+        <v>2.940000912918608</v>
       </c>
       <c r="E35">
-        <v>1044</v>
+        <v>1104</v>
       </c>
       <c r="F35">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="G35">
-        <v>0.4549350302413514</v>
+        <v>0.4782332417629418</v>
       </c>
       <c r="H35">
-        <v>440.4110756180478</v>
+        <v>422.0839799494586</v>
       </c>
       <c r="I35">
-        <v>631.7649396595518</v>
+        <v>652.0293902651688</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>3.102279014209068</v>
+        <v>319.3663833987417</v>
       </c>
       <c r="L35">
-        <v>75.15995048307357</v>
+        <v>0.0007499195622332704</v>
       </c>
       <c r="M35">
-        <v>205.9684342830261</v>
+        <v>206.9999999999712</v>
       </c>
       <c r="N35">
-        <v>32.94041456805085</v>
+        <v>43.31253808365248</v>
       </c>
       <c r="O35">
-        <v>6.181414703763882</v>
+        <v>5.249536128572654</v>
       </c>
       <c r="P35">
-        <v>50.66603098275066</v>
+        <v>59.23078184272645</v>
       </c>
       <c r="Q35">
-        <v>415.7562735228063</v>
+        <v>401.295288533984</v>
       </c>
       <c r="R35">
-        <v>0.835364735188839</v>
+        <v>0.7377684012425237</v>
       </c>
       <c r="S35">
-        <v>39.15164540049694</v>
+        <v>42.41595883850847</v>
       </c>
       <c r="T35">
-        <v>2.80692237593464</v>
+        <v>2.88276041096223</v>
       </c>
       <c r="U35">
-        <v>0.2983835238655801</v>
+        <v>0.3382551728566017</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2723,61 +2723,61 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>184.8828588388157</v>
+        <v>150.4843000468671</v>
       </c>
       <c r="D36">
-        <v>5.150254704071726</v>
+        <v>2.94</v>
       </c>
       <c r="E36">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F36">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G36">
-        <v>0.4388414973546236</v>
+        <v>0.4983277165484138</v>
       </c>
       <c r="H36">
-        <v>413.780868343578</v>
+        <v>421.8099636240906</v>
       </c>
       <c r="I36">
-        <v>766.241604915019</v>
+        <v>632.7635925844834</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>41.89836532765913</v>
+        <v>2.519634746414393</v>
       </c>
       <c r="L36">
-        <v>363.5789261026387</v>
+        <v>50.40767959583952</v>
       </c>
       <c r="M36">
-        <v>181.4840437166587</v>
+        <v>207</v>
       </c>
       <c r="N36">
-        <v>31.79729049077043</v>
+        <v>50.34752584962817</v>
       </c>
       <c r="O36">
-        <v>6.315050941724458</v>
+        <v>5.001338167497503</v>
       </c>
       <c r="P36">
-        <v>19.60420388746448</v>
+        <v>59.96043171307161</v>
       </c>
       <c r="Q36">
-        <v>356.3121211175078</v>
+        <v>343.3296403884176</v>
       </c>
       <c r="R36">
-        <v>0.7768276173346594</v>
+        <v>0.1475051027924733</v>
       </c>
       <c r="S36">
-        <v>91.50818677542361</v>
+        <v>47.85671943487432</v>
       </c>
       <c r="T36">
-        <v>7.11736485639053</v>
+        <v>6.352053442453817</v>
       </c>
       <c r="U36">
-        <v>0.4214779440048462</v>
+        <v>0.3754726786134743</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2788,61 +2788,61 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>156.4842332966278</v>
+        <v>150.103826746864</v>
       </c>
       <c r="D37">
-        <v>2.942430943946498</v>
+        <v>2.940000006318249</v>
       </c>
       <c r="E37">
-        <v>1184</v>
+        <v>1498</v>
       </c>
       <c r="F37">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G37">
-        <v>0.4735711074489086</v>
+        <v>0.4956029599902223</v>
       </c>
       <c r="H37">
-        <v>408.4200302236659</v>
+        <v>440.4815224858057</v>
       </c>
       <c r="I37">
-        <v>724.4888359559189</v>
+        <v>630.0886691023831</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>477.2756936678163</v>
+        <v>32.06181608598941</v>
       </c>
       <c r="L37">
-        <v>1.62112633597889</v>
+        <v>0.00614442157621352</v>
       </c>
       <c r="M37">
-        <v>206.9999999298336</v>
+        <v>207</v>
       </c>
       <c r="N37">
-        <v>37.91347149247247</v>
+        <v>63.08874223669095</v>
       </c>
       <c r="O37">
-        <v>5.1281120582978</v>
+        <v>5.02346359880838</v>
       </c>
       <c r="P37">
-        <v>54.50824920998836</v>
+        <v>60.05605327755926</v>
       </c>
       <c r="Q37">
-        <v>388.8882888539884</v>
+        <v>388.7958929072182</v>
       </c>
       <c r="R37">
-        <v>0.6765008147795709</v>
+        <v>0.7013753694134038</v>
       </c>
       <c r="S37">
-        <v>98.76876243805681</v>
+        <v>39.10709627831067</v>
       </c>
       <c r="T37">
-        <v>6.959683860472477</v>
+        <v>3.040876283714155</v>
       </c>
       <c r="U37">
-        <v>0.4919097609160603</v>
+        <v>0.3702874488804804</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2853,61 +2853,61 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>207.2075916270169</v>
+        <v>186.9081107324492</v>
       </c>
       <c r="D38">
-        <v>3.104234324687899</v>
+        <v>2.94000000000019</v>
       </c>
       <c r="E38">
-        <v>1044</v>
+        <v>1499</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G38">
-        <v>0.4395518187588778</v>
+        <v>0.4868904145031793</v>
       </c>
       <c r="H38">
-        <v>435.9020073355916</v>
+        <v>428.2899742619029</v>
       </c>
       <c r="I38">
-        <v>662.7910540111499</v>
+        <v>641.3474434219286</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>4.917762369819218E-06</v>
+        <v>63.59007923297718</v>
       </c>
       <c r="L38">
-        <v>1214.909097993749</v>
+        <v>1.868784306744394</v>
       </c>
       <c r="M38">
-        <v>181.4841578205702</v>
+        <v>207</v>
       </c>
       <c r="N38">
-        <v>34.87030028857049</v>
+        <v>61.75709205253574</v>
       </c>
       <c r="O38">
-        <v>6.344681204132833</v>
+        <v>5.052104570260986</v>
       </c>
       <c r="P38">
-        <v>23.21054441876586</v>
+        <v>58.38226999055609</v>
       </c>
       <c r="Q38">
-        <v>366.8063818139299</v>
+        <v>325.9550001828512</v>
       </c>
       <c r="R38">
-        <v>0.80068521238071</v>
+        <v>0.09051053107324328</v>
       </c>
       <c r="S38">
-        <v>47.79289433422689</v>
+        <v>54.26036185954459</v>
       </c>
       <c r="T38">
-        <v>3.529223746117976</v>
+        <v>5.230085002945437</v>
       </c>
       <c r="U38">
-        <v>0.3454955324384172</v>
+        <v>0.3684986053265702</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2918,61 +2918,61 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>159.6517788808621</v>
+        <v>220.66437813311</v>
       </c>
       <c r="D39">
-        <v>2.948159727239748</v>
+        <v>5.159178577371586</v>
       </c>
       <c r="E39">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="F39">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>0.4671820154746096</v>
+        <v>0.4270690170415594</v>
       </c>
       <c r="H39">
-        <v>419.5877497563508</v>
+        <v>421.9127845995979</v>
       </c>
       <c r="I39">
-        <v>698.7959880155834</v>
+        <v>780.4746206354748</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>90.82920863810469</v>
+        <v>25.85171941074564</v>
       </c>
       <c r="L39">
-        <v>80.68475546381434</v>
+        <v>0.02769391718379297</v>
       </c>
       <c r="M39">
-        <v>206.9999839433343</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N39">
-        <v>46.30911567746647</v>
+        <v>33.74312237597542</v>
       </c>
       <c r="O39">
-        <v>5.233961404937832</v>
+        <v>7.169620597110431</v>
       </c>
       <c r="P39">
-        <v>55.11212755323015</v>
+        <v>59.0337543054188</v>
       </c>
       <c r="Q39">
-        <v>353.6356307324612</v>
+        <v>373.9698096347786</v>
       </c>
       <c r="R39">
-        <v>0.4972165524610945</v>
+        <v>0.8472204395552051</v>
       </c>
       <c r="S39">
-        <v>44.08167736077533</v>
+        <v>40.10785609700335</v>
       </c>
       <c r="T39">
-        <v>3.799522389471252</v>
+        <v>2.95494246080325</v>
       </c>
       <c r="U39">
-        <v>0.426447806720847</v>
+        <v>0.3987099081996515</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2983,61 +2983,61 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>184.1580639805817</v>
+        <v>163.6573706416054</v>
       </c>
       <c r="D40">
-        <v>3.094941563128231</v>
+        <v>2.940004110590919</v>
       </c>
       <c r="E40">
-        <v>1052</v>
+        <v>1438</v>
       </c>
       <c r="F40">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G40">
-        <v>0.4494440324851258</v>
+        <v>0.4851161951052503</v>
       </c>
       <c r="H40">
-        <v>414.7005233598111</v>
+        <v>429.4275212015039</v>
       </c>
       <c r="I40">
-        <v>750.5763924857451</v>
+        <v>643.0225374438641</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>69.47535345938708</v>
+        <v>1.581089035179116</v>
       </c>
       <c r="L40">
-        <v>128.7258938465759</v>
+        <v>64.75978269976223</v>
       </c>
       <c r="M40">
-        <v>181.6168581627539</v>
+        <v>207</v>
       </c>
       <c r="N40">
-        <v>30.82016016689457</v>
+        <v>63.55206444625527</v>
       </c>
       <c r="O40">
-        <v>5.527271380274783</v>
+        <v>5.085419192582648</v>
       </c>
       <c r="P40">
-        <v>57.27036576822824</v>
+        <v>40.95517808291864</v>
       </c>
       <c r="Q40">
-        <v>332.3355417886879</v>
+        <v>388.2046578291531</v>
       </c>
       <c r="R40">
-        <v>0.4999748961579376</v>
+        <v>0.7554332219162871</v>
       </c>
       <c r="S40">
-        <v>47.76423481762528</v>
+        <v>39.31679521574019</v>
       </c>
       <c r="T40">
-        <v>6.022010621750839</v>
+        <v>6.554935281110257</v>
       </c>
       <c r="U40">
-        <v>0.4745522595886347</v>
+        <v>0.390288594912221</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3048,61 +3048,61 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>151.8384290450235</v>
+        <v>192.6426019870018</v>
       </c>
       <c r="D41">
-        <v>2.941154622149317</v>
+        <v>2.940000313955503</v>
       </c>
       <c r="E41">
-        <v>1469</v>
+        <v>1130</v>
       </c>
       <c r="F41">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G41">
-        <v>0.4835120674481947</v>
+        <v>0.4770980555856753</v>
       </c>
       <c r="H41">
-        <v>424.0437848419931</v>
+        <v>416.9720846422003</v>
       </c>
       <c r="I41">
-        <v>661.7969380729039</v>
+        <v>704.9388705318119</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>51.17024404148449</v>
+        <v>11.03073209733333</v>
       </c>
       <c r="L41">
-        <v>7.762694650040124</v>
+        <v>236.9763344292044</v>
       </c>
       <c r="M41">
-        <v>206.9999999999983</v>
+        <v>206.999999999956</v>
       </c>
       <c r="N41">
-        <v>52.94051199540447</v>
+        <v>58.28524034354469</v>
       </c>
       <c r="O41">
-        <v>5.097455629115959</v>
+        <v>5.089828482277302</v>
       </c>
       <c r="P41">
-        <v>57.56188483092932</v>
+        <v>52.53752502684608</v>
       </c>
       <c r="Q41">
-        <v>330.8676317385028</v>
+        <v>372.3172207272086</v>
       </c>
       <c r="R41">
-        <v>0.1765512733464251</v>
+        <v>0.6822559910136344</v>
       </c>
       <c r="S41">
-        <v>50.50703501743686</v>
+        <v>41.16317707611157</v>
       </c>
       <c r="T41">
-        <v>10.19696602656668</v>
+        <v>4.620220514317296</v>
       </c>
       <c r="U41">
-        <v>0.3976915402458512</v>
+        <v>0.451179028923189</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3113,61 +3113,61 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>208.6341744098263</v>
+        <v>195.588713118818</v>
       </c>
       <c r="D42">
-        <v>5.733201783957203</v>
+        <v>3.646536943013897</v>
       </c>
       <c r="E42">
         <v>1045</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G42">
-        <v>0.4327871483681437</v>
+        <v>0.4417438079604066</v>
       </c>
       <c r="H42">
-        <v>384.3701425277561</v>
+        <v>406.4486584084589</v>
       </c>
       <c r="I42">
-        <v>787.7105499081217</v>
+        <v>775.363971959424</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>639.0539501736287</v>
+        <v>17.75292808108475</v>
       </c>
       <c r="L42">
-        <v>0.1072120785028483</v>
+        <v>280.4047298345871</v>
       </c>
       <c r="M42">
-        <v>181.4840437155992</v>
+        <v>181.4840440987782</v>
       </c>
       <c r="N42">
-        <v>35.51863331577081</v>
+        <v>41.42484062642589</v>
       </c>
       <c r="O42">
-        <v>5.979052649871267</v>
+        <v>5.675907246869765</v>
       </c>
       <c r="P42">
-        <v>54.07648689331833</v>
+        <v>45.36166718946006</v>
       </c>
       <c r="Q42">
-        <v>323.8476189636174</v>
+        <v>321.0485081548128</v>
       </c>
       <c r="R42">
-        <v>0.8124837267548</v>
+        <v>0.5624604796371248</v>
       </c>
       <c r="S42">
-        <v>184.0535798931568</v>
+        <v>98.91592731976667</v>
       </c>
       <c r="T42">
-        <v>7.75258238989211</v>
+        <v>11.54767517930343</v>
       </c>
       <c r="U42">
-        <v>0.5343860553963149</v>
+        <v>0.478930854258053</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3178,61 +3178,61 @@
         <v>20</v>
       </c>
       <c r="C43">
-        <v>197.4800395151957</v>
+        <v>216.8203444316981</v>
       </c>
       <c r="D43">
-        <v>2.940340853512643</v>
+        <v>3.059025466136682</v>
       </c>
       <c r="E43">
-        <v>1464</v>
+        <v>1044</v>
       </c>
       <c r="F43">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G43">
-        <v>0.4576319412937997</v>
+        <v>0.4374533461856683</v>
       </c>
       <c r="H43">
-        <v>403.631692086838</v>
+        <v>416.1055438750384</v>
       </c>
       <c r="I43">
-        <v>775.4514375270167</v>
+        <v>751.029704374399</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>210.5500761160703</v>
+        <v>0.09483302883234142</v>
       </c>
       <c r="L43">
-        <v>391.3237609536829</v>
+        <v>2.545911788199843</v>
       </c>
       <c r="M43">
-        <v>205.4313435325688</v>
+        <v>181.4840437411387</v>
       </c>
       <c r="N43">
-        <v>37.7721990434657</v>
+        <v>48.06422700307898</v>
       </c>
       <c r="O43">
-        <v>5.162547476478609</v>
+        <v>6.051282110711541</v>
       </c>
       <c r="P43">
-        <v>51.18059981451222</v>
+        <v>58.31921845658311</v>
       </c>
       <c r="Q43">
-        <v>323.2966204963919</v>
+        <v>399.8691216709065</v>
       </c>
       <c r="R43">
-        <v>0.07585653033747403</v>
+        <v>0.8027286309815167</v>
       </c>
       <c r="S43">
-        <v>115.0991382031306</v>
+        <v>101.2430342941628</v>
       </c>
       <c r="T43">
-        <v>15.63908737603251</v>
+        <v>6.857510844892539</v>
       </c>
       <c r="U43">
-        <v>0.5034688722250185</v>
+        <v>0.4983129511214954</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3243,61 +3243,61 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <v>159.5860499231121</v>
+        <v>150.0447339877889</v>
       </c>
       <c r="D44">
-        <v>2.953493215002499</v>
+        <v>2.94</v>
       </c>
       <c r="E44">
-        <v>1227</v>
+        <v>1500</v>
       </c>
       <c r="F44">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G44">
-        <v>0.4667024398229729</v>
+        <v>0.4992458393072929</v>
       </c>
       <c r="H44">
-        <v>419.0264225695043</v>
+        <v>406.623999198122</v>
       </c>
       <c r="I44">
-        <v>739.7138263336969</v>
+        <v>637.1735153692819</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>128.215223001341</v>
+        <v>52.11425228341648</v>
       </c>
       <c r="L44">
-        <v>12.30892242284273</v>
+        <v>0.7255324555252219</v>
       </c>
       <c r="M44">
-        <v>206.9999985409167</v>
+        <v>207</v>
       </c>
       <c r="N44">
-        <v>39.87505073231941</v>
+        <v>59.68937836164447</v>
       </c>
       <c r="O44">
-        <v>5.154699361299024</v>
+        <v>5.000187358319363</v>
       </c>
       <c r="P44">
-        <v>54.59730337951341</v>
+        <v>60.28774475910193</v>
       </c>
       <c r="Q44">
-        <v>370.5361045580985</v>
+        <v>324.4136121984025</v>
       </c>
       <c r="R44">
-        <v>0.5328521633333159</v>
+        <v>0.1349340687889517</v>
       </c>
       <c r="S44">
-        <v>64.47582755673098</v>
+        <v>42.87202794886056</v>
       </c>
       <c r="T44">
-        <v>3.916421058799712</v>
+        <v>7.054417746509575</v>
       </c>
       <c r="U44">
-        <v>0.4378336083503109</v>
+        <v>0.4101582571236053</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3308,61 +3308,61 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>151.7377176911476</v>
+        <v>220.5692737431271</v>
       </c>
       <c r="D45">
-        <v>2.94000349747225</v>
+        <v>2.971148955121385</v>
       </c>
       <c r="E45">
-        <v>1315</v>
+        <v>1044</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G45">
-        <v>0.4865736638954055</v>
+        <v>0.4347013411568775</v>
       </c>
       <c r="H45">
-        <v>434.2664262081587</v>
+        <v>398.0843460866624</v>
       </c>
       <c r="I45">
-        <v>633.2563693646556</v>
+        <v>785.1293685914408</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.009426611396735828</v>
+        <v>148.8112671947407</v>
       </c>
       <c r="L45">
-        <v>715.6547154335897</v>
+        <v>7.768498510141089</v>
       </c>
       <c r="M45">
-        <v>207</v>
+        <v>181.4840437156037</v>
       </c>
       <c r="N45">
-        <v>42.45136095707168</v>
+        <v>44.22557627748828</v>
       </c>
       <c r="O45">
-        <v>5.1253395840954</v>
+        <v>6.011193232854164</v>
       </c>
       <c r="P45">
-        <v>49.92483320176194</v>
+        <v>41.65472209603417</v>
       </c>
       <c r="Q45">
-        <v>401.9333118265478</v>
+        <v>325.0928037545385</v>
       </c>
       <c r="R45">
-        <v>0.777540636851906</v>
+        <v>0.8424077386434691</v>
       </c>
       <c r="S45">
-        <v>55.17134321561583</v>
+        <v>136.4092844150724</v>
       </c>
       <c r="T45">
-        <v>3.248544203050038</v>
+        <v>7.433350385018198</v>
       </c>
       <c r="U45">
-        <v>0.4022109472389508</v>
+        <v>0.4779939062377085</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3373,61 +3373,61 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>150.0183215238669</v>
+        <v>153.5171866139379</v>
       </c>
       <c r="D46">
-        <v>2.942193961360117</v>
+        <v>4.501094553538884</v>
       </c>
       <c r="E46">
-        <v>1463</v>
+        <v>1044</v>
       </c>
       <c r="F46">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>0.4893207637122245</v>
+        <v>0.4510752157608579</v>
       </c>
       <c r="H46">
-        <v>404.4040373721969</v>
+        <v>426.606354123963</v>
       </c>
       <c r="I46">
-        <v>684.1052250642932</v>
+        <v>685.6431412863734</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>760.7908088127074</v>
+        <v>0.01739126515209271</v>
       </c>
       <c r="L46">
-        <v>6.885863497958161</v>
+        <v>1459.852325119396</v>
       </c>
       <c r="M46">
-        <v>207</v>
+        <v>184.1259983028423</v>
       </c>
       <c r="N46">
-        <v>48.48062945390082</v>
+        <v>42.97913920337528</v>
       </c>
       <c r="O46">
-        <v>5.02845483238638</v>
+        <v>5.753494385585268</v>
       </c>
       <c r="P46">
-        <v>53.83246898748646</v>
+        <v>21.90607740896105</v>
       </c>
       <c r="Q46">
-        <v>350.5721880228414</v>
+        <v>340.5990022342029</v>
       </c>
       <c r="R46">
-        <v>0.1542417956359522</v>
+        <v>0.8057629478908559</v>
       </c>
       <c r="S46">
-        <v>93.70050525324368</v>
+        <v>39.82933691747321</v>
       </c>
       <c r="T46">
-        <v>3.520761416053642</v>
+        <v>4.404350735841012</v>
       </c>
       <c r="U46">
-        <v>0.493089065147843</v>
+        <v>0.3987094933550961</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3438,61 +3438,61 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <v>161.0626010672234</v>
+        <v>150.4341517817576</v>
       </c>
       <c r="D47">
-        <v>2.940196629971602</v>
+        <v>2.940026623494055</v>
       </c>
       <c r="E47">
-        <v>1300</v>
+        <v>1434</v>
       </c>
       <c r="F47">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G47">
-        <v>0.4752933402570945</v>
+        <v>0.4902115203888908</v>
       </c>
       <c r="H47">
-        <v>425.0565031564449</v>
+        <v>419.6231197485008</v>
       </c>
       <c r="I47">
-        <v>665.633419460925</v>
+        <v>643.5133074899211</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.05299858718153202</v>
+        <v>12.46467479223741</v>
       </c>
       <c r="L47">
-        <v>115.5809860440779</v>
+        <v>395.6297342739455</v>
       </c>
       <c r="M47">
-        <v>206.9999999907563</v>
+        <v>207</v>
       </c>
       <c r="N47">
-        <v>48.07434830441234</v>
+        <v>53.98059086914744</v>
       </c>
       <c r="O47">
-        <v>5.182108313399204</v>
+        <v>5.036623759609927</v>
       </c>
       <c r="P47">
-        <v>59.26067404868255</v>
+        <v>57.1070895883793</v>
       </c>
       <c r="Q47">
-        <v>325.8238048248089</v>
+        <v>334.385441815052</v>
       </c>
       <c r="R47">
-        <v>0.404456724786223</v>
+        <v>0.4694629123203261</v>
       </c>
       <c r="S47">
-        <v>40.57989108861369</v>
+        <v>39.30800601353602</v>
       </c>
       <c r="T47">
-        <v>5.242921553880617</v>
+        <v>4.400655672019741</v>
       </c>
       <c r="U47">
-        <v>0.3433138947801986</v>
+        <v>0.3821171353150814</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3503,61 +3503,61 @@
         <v>20</v>
       </c>
       <c r="C48">
-        <v>208.3062867046031</v>
+        <v>215.0585578373772</v>
       </c>
       <c r="D48">
-        <v>4.775072382108073</v>
+        <v>2.940000411938137</v>
       </c>
       <c r="E48">
-        <v>1044</v>
+        <v>1368</v>
       </c>
       <c r="F48">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G48">
-        <v>0.4317436960992747</v>
+        <v>0.4687099159410139</v>
       </c>
       <c r="H48">
-        <v>415.5396035131666</v>
+        <v>407.8655896449068</v>
       </c>
       <c r="I48">
-        <v>777.3877610438684</v>
+        <v>739.0121358037245</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1.166388210347396</v>
+        <v>362.9465237726282</v>
       </c>
       <c r="L48">
-        <v>125.7662206875951</v>
+        <v>0.3348521008678263</v>
       </c>
       <c r="M48">
-        <v>181.4840437155993</v>
+        <v>206.9966934065338</v>
       </c>
       <c r="N48">
-        <v>32.2664683426342</v>
+        <v>49.34514057494154</v>
       </c>
       <c r="O48">
-        <v>6.421718917260252</v>
+        <v>5.204658725977045</v>
       </c>
       <c r="P48">
-        <v>48.49535026451865</v>
+        <v>60.05063326946492</v>
       </c>
       <c r="Q48">
-        <v>324.7543309635205</v>
+        <v>344.6198696505878</v>
       </c>
       <c r="R48">
-        <v>0.5336078079187031</v>
+        <v>0.772193091406074</v>
       </c>
       <c r="S48">
-        <v>92.63184266856135</v>
+        <v>107.8400563884301</v>
       </c>
       <c r="T48">
-        <v>8.763697783111436</v>
+        <v>4.744945490816367</v>
       </c>
       <c r="U48">
-        <v>0.4065235150614288</v>
+        <v>0.4999798464610303</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3568,61 +3568,61 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>209.6387482555167</v>
+        <v>152.6870919808676</v>
       </c>
       <c r="D49">
-        <v>2.940000000000151</v>
+        <v>2.940021704749341</v>
       </c>
       <c r="E49">
-        <v>1460</v>
+        <v>1477</v>
       </c>
       <c r="F49">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G49">
-        <v>0.4842601254525655</v>
+        <v>0.4849570147414818</v>
       </c>
       <c r="H49">
-        <v>420.3882908596522</v>
+        <v>415.8843981752123</v>
       </c>
       <c r="I49">
-        <v>665.0856756270204</v>
+        <v>687.2140941615612</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>107.377804801256</v>
+        <v>281.0995682308887</v>
       </c>
       <c r="L49">
-        <v>0.1523018827472026</v>
+        <v>9.845780627212205</v>
       </c>
       <c r="M49">
         <v>207</v>
       </c>
       <c r="N49">
-        <v>62.56066915881618</v>
+        <v>49.65974965344732</v>
       </c>
       <c r="O49">
-        <v>5.042375781206685</v>
+        <v>5.062246877285043</v>
       </c>
       <c r="P49">
-        <v>60.21875185590293</v>
+        <v>59.7024915763477</v>
       </c>
       <c r="Q49">
-        <v>343.8702745957781</v>
+        <v>380.4695726197204</v>
       </c>
       <c r="R49">
-        <v>0.5418178301598137</v>
+        <v>0.2005715325763121</v>
       </c>
       <c r="S49">
-        <v>45.33068477827599</v>
+        <v>49.17498147204152</v>
       </c>
       <c r="T49">
-        <v>6.208643762596586</v>
+        <v>3.797577128143869</v>
       </c>
       <c r="U49">
-        <v>0.4181142271959231</v>
+        <v>0.4282717637024873</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3633,61 +3633,61 @@
         <v>20</v>
       </c>
       <c r="C50">
-        <v>152.9044994427786</v>
+        <v>154.0414258680123</v>
       </c>
       <c r="D50">
-        <v>2.94</v>
+        <v>2.9400000000001</v>
       </c>
       <c r="E50">
         <v>1500</v>
       </c>
       <c r="F50">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>0.4986284215605959</v>
+        <v>0.4977125797007838</v>
       </c>
       <c r="H50">
-        <v>424.5146651035691</v>
+        <v>403.1985051397485</v>
       </c>
       <c r="I50">
-        <v>630.8633020144376</v>
+        <v>655.411345180581</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>176.550787510677</v>
+        <v>974.4083520139961</v>
       </c>
       <c r="L50">
-        <v>2.418166897137408</v>
+        <v>0.001459915249402154</v>
       </c>
       <c r="M50">
         <v>207</v>
       </c>
       <c r="N50">
-        <v>60.76468191752049</v>
+        <v>53.82112014199811</v>
       </c>
       <c r="O50">
-        <v>5.002340464030423</v>
+        <v>5.005747393092376</v>
       </c>
       <c r="P50">
-        <v>59.10069520385979</v>
+        <v>60.38264289511422</v>
       </c>
       <c r="Q50">
-        <v>332.3311365927098</v>
+        <v>345.5618068440481</v>
       </c>
       <c r="R50">
-        <v>0.1647220084793809</v>
+        <v>0.2788631620099173</v>
       </c>
       <c r="S50">
-        <v>42.7396943156813</v>
+        <v>107.1963481433764</v>
       </c>
       <c r="T50">
-        <v>3.625349960382211</v>
+        <v>3.70023872664077</v>
       </c>
       <c r="U50">
-        <v>0.3870089814964937</v>
+        <v>0.4397320614977485</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3698,61 +3698,61 @@
         <v>20</v>
       </c>
       <c r="C51">
-        <v>185.3328754787004</v>
+        <v>151.4438004982878</v>
       </c>
       <c r="D51">
-        <v>2.973036994525805</v>
+        <v>2.940000038419779</v>
       </c>
       <c r="E51">
-        <v>1090</v>
+        <v>1500</v>
       </c>
       <c r="F51">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G51">
-        <v>0.4525112913352838</v>
+        <v>0.4901746782865244</v>
       </c>
       <c r="H51">
-        <v>416.3036010531578</v>
+        <v>423.3845930969574</v>
       </c>
       <c r="I51">
-        <v>694.0403406992768</v>
+        <v>659.0624972213552</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>92.72075729054671</v>
+        <v>27.84043533394572</v>
       </c>
       <c r="L51">
-        <v>55.80114085709067</v>
+        <v>138.2485576841231</v>
       </c>
       <c r="M51">
-        <v>192.5936316569485</v>
+        <v>207</v>
       </c>
       <c r="N51">
-        <v>40.53001689430307</v>
+        <v>52.67236477841634</v>
       </c>
       <c r="O51">
-        <v>5.515425806110954</v>
+        <v>5.016173367475165</v>
       </c>
       <c r="P51">
-        <v>54.04073029993712</v>
+        <v>60.2324371527916</v>
       </c>
       <c r="Q51">
-        <v>372.2144190260244</v>
+        <v>321.449515020808</v>
       </c>
       <c r="R51">
-        <v>0.5447321655811366</v>
+        <v>0.05670793322713839</v>
       </c>
       <c r="S51">
-        <v>51.33789407746514</v>
+        <v>101.6958014184388</v>
       </c>
       <c r="T51">
-        <v>3.346278081229868</v>
+        <v>10.78136903502342</v>
       </c>
       <c r="U51">
-        <v>0.4488367142006948</v>
+        <v>0.4481556508769917</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3763,61 +3763,61 @@
         <v>20</v>
       </c>
       <c r="C52">
-        <v>157.1246608783807</v>
+        <v>191.4142972001185</v>
       </c>
       <c r="D52">
-        <v>3.964154270572025</v>
+        <v>2.940930514849207</v>
       </c>
       <c r="E52">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="F52">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>0.4450851236109556</v>
+        <v>0.4654729817665249</v>
       </c>
       <c r="H52">
-        <v>428.3919718371153</v>
+        <v>421.484865386665</v>
       </c>
       <c r="I52">
-        <v>692.0653650193933</v>
+        <v>656.5041054319721</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>2.172552405244074</v>
+        <v>51.75396535400083</v>
       </c>
       <c r="L52">
-        <v>169.6354007763522</v>
+        <v>3.542543501773306</v>
       </c>
       <c r="M52">
-        <v>181.5712129131312</v>
+        <v>206.9986948608412</v>
       </c>
       <c r="N52">
-        <v>34.9602672947586</v>
+        <v>49.91725073522939</v>
       </c>
       <c r="O52">
-        <v>5.918931324330963</v>
+        <v>5.533649609289547</v>
       </c>
       <c r="P52">
-        <v>53.17788561173784</v>
+        <v>42.76868866468943</v>
       </c>
       <c r="Q52">
-        <v>332.1399063901055</v>
+        <v>387.9732560671321</v>
       </c>
       <c r="R52">
-        <v>0.5874508571923469</v>
+        <v>0.7606847887553299</v>
       </c>
       <c r="S52">
-        <v>127.6880097785308</v>
+        <v>58.00681591177953</v>
       </c>
       <c r="T52">
-        <v>4.307140468977706</v>
+        <v>3.428027456414607</v>
       </c>
       <c r="U52">
-        <v>0.433286646133249</v>
+        <v>0.3913279969836774</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3828,61 +3828,61 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>203.5704320857471</v>
+        <v>172.3100210420878</v>
       </c>
       <c r="D53">
-        <v>3.000317362092371</v>
+        <v>2.943081213463749</v>
       </c>
       <c r="E53">
-        <v>1044</v>
+        <v>1057</v>
       </c>
       <c r="F53">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G53">
-        <v>0.4444682859442569</v>
+        <v>0.4641794041601081</v>
       </c>
       <c r="H53">
-        <v>421.2764656091167</v>
+        <v>427.430905756039</v>
       </c>
       <c r="I53">
-        <v>728.4604171990667</v>
+        <v>677.2453457939216</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0.1341465510414813</v>
+        <v>83.61377349345543</v>
       </c>
       <c r="L53">
-        <v>503.7693768946785</v>
+        <v>75.39395498616609</v>
       </c>
       <c r="M53">
-        <v>181.4880766032302</v>
+        <v>206.9999377991217</v>
       </c>
       <c r="N53">
-        <v>40.3043527481907</v>
+        <v>37.49565214105271</v>
       </c>
       <c r="O53">
-        <v>5.846796157407518</v>
+        <v>5.296080713426026</v>
       </c>
       <c r="P53">
-        <v>47.94233052592146</v>
+        <v>55.45590926418507</v>
       </c>
       <c r="Q53">
-        <v>376.7038787014617</v>
+        <v>388.0324296139153</v>
       </c>
       <c r="R53">
-        <v>0.7221917665597609</v>
+        <v>0.7688999686481293</v>
       </c>
       <c r="S53">
-        <v>51.2356025231783</v>
+        <v>48.57786809360433</v>
       </c>
       <c r="T53">
-        <v>4.171851933424516</v>
+        <v>3.556934927173883</v>
       </c>
       <c r="U53">
-        <v>0.3786025206058601</v>
+        <v>0.3936245571766006</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3893,61 +3893,61 @@
         <v>20</v>
       </c>
       <c r="C54">
-        <v>154.4148414309791</v>
+        <v>162.2205349479694</v>
       </c>
       <c r="D54">
-        <v>2.941416046698791</v>
+        <v>2.940864314943508</v>
       </c>
       <c r="E54">
-        <v>1494</v>
+        <v>1158</v>
       </c>
       <c r="F54">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G54">
-        <v>0.4854773016115037</v>
+        <v>0.4776154016173555</v>
       </c>
       <c r="H54">
-        <v>415.1857365356996</v>
+        <v>416.0500854917891</v>
       </c>
       <c r="I54">
-        <v>689.7028297727485</v>
+        <v>704.0868945549174</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>139.9551256708144</v>
+        <v>70.89291447482243</v>
       </c>
       <c r="L54">
-        <v>24.56709451998709</v>
+        <v>73.21032818733661</v>
       </c>
       <c r="M54">
-        <v>206.9999999999967</v>
+        <v>206.9999999848992</v>
       </c>
       <c r="N54">
-        <v>55.5418915105644</v>
+        <v>52.93604263847543</v>
       </c>
       <c r="O54">
-        <v>5.090371871866449</v>
+        <v>5.164848251314814</v>
       </c>
       <c r="P54">
-        <v>58.40543373795136</v>
+        <v>48.23043222177841</v>
       </c>
       <c r="Q54">
-        <v>369.2845829437673</v>
+        <v>347.8231216106173</v>
       </c>
       <c r="R54">
-        <v>0.3507673923108969</v>
+        <v>0.6928476770091113</v>
       </c>
       <c r="S54">
-        <v>42.23910665513571</v>
+        <v>44.43098206648494</v>
       </c>
       <c r="T54">
-        <v>6.561920941618843</v>
+        <v>4.60122931541871</v>
       </c>
       <c r="U54">
-        <v>0.4555867794082913</v>
+        <v>0.4177131646166852</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3955,64 +3955,64 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>150.0000021225986</v>
+        <v>150.3890812763698</v>
       </c>
       <c r="D55">
-        <v>2.94</v>
+        <v>2.940003699536657</v>
       </c>
       <c r="E55">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G55">
-        <v>0.4999995658222419</v>
+        <v>0.4923637624250307</v>
       </c>
       <c r="H55">
-        <v>385.487029686295</v>
+        <v>403.551674178404</v>
       </c>
       <c r="I55">
-        <v>646.3598860114793</v>
+        <v>694.195587065867</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1211.962465492925</v>
+        <v>488.516349738783</v>
       </c>
       <c r="L55">
-        <v>19.91000004227254</v>
+        <v>54.7551820314382</v>
       </c>
       <c r="M55">
         <v>207</v>
       </c>
       <c r="N55">
-        <v>63.87379073276842</v>
+        <v>50.36047855811749</v>
       </c>
       <c r="O55">
-        <v>5.000000000066342</v>
+        <v>5.020165956076865</v>
       </c>
       <c r="P55">
-        <v>60.3797386637031</v>
+        <v>54.88551769269458</v>
       </c>
       <c r="Q55">
-        <v>321.0000043349601</v>
+        <v>356.2436744924248</v>
       </c>
       <c r="R55">
-        <v>0.05480079136971597</v>
+        <v>0.3085256309896494</v>
       </c>
       <c r="S55">
-        <v>70.20201635257372</v>
+        <v>172.3676861150844</v>
       </c>
       <c r="T55">
-        <v>11.17828438858985</v>
+        <v>7.231898554974537</v>
       </c>
       <c r="U55">
-        <v>0.4265916297737067</v>
+        <v>0.4830833800770693</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4023,61 +4023,61 @@
         <v>20</v>
       </c>
       <c r="C56">
-        <v>182.9774905552379</v>
+        <v>152.5649174114959</v>
       </c>
       <c r="D56">
-        <v>2.9497812984409</v>
+        <v>2.94</v>
       </c>
       <c r="E56">
-        <v>1170</v>
+        <v>1500</v>
       </c>
       <c r="F56">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G56">
-        <v>0.4673806719082766</v>
+        <v>0.4998413262258612</v>
       </c>
       <c r="H56">
-        <v>412.5787355700897</v>
+        <v>427.5270975464323</v>
       </c>
       <c r="I56">
-        <v>736.3090965799577</v>
+        <v>630.1266853755114</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4.177238689263071</v>
+        <v>251.3418944790086</v>
       </c>
       <c r="L56">
-        <v>5.574271346844623</v>
+        <v>0.1200793070121033</v>
       </c>
       <c r="M56">
-        <v>206.5559373560495</v>
+        <v>207</v>
       </c>
       <c r="N56">
-        <v>52.20317862841673</v>
+        <v>64.11865064685895</v>
       </c>
       <c r="O56">
-        <v>5.28782238404606</v>
+        <v>5.000059933056185</v>
       </c>
       <c r="P56">
-        <v>56.24569370268528</v>
+        <v>60.24870923807274</v>
       </c>
       <c r="Q56">
-        <v>322.1197559804934</v>
+        <v>339.7241051975472</v>
       </c>
       <c r="R56">
-        <v>0.2393377253137136</v>
+        <v>0.07537306044615004</v>
       </c>
       <c r="S56">
-        <v>39.44971113451665</v>
+        <v>39.15662014804384</v>
       </c>
       <c r="T56">
-        <v>8.264038737358378</v>
+        <v>5.333233112926003</v>
       </c>
       <c r="U56">
-        <v>0.3880883240187178</v>
+        <v>0.3319543005290753</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4085,64 +4085,64 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>150.0004661278642</v>
+        <v>151.245102750317</v>
       </c>
       <c r="D57">
-        <v>2.940000000082248</v>
+        <v>2.940000000031835</v>
       </c>
       <c r="E57">
         <v>1500</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G57">
-        <v>0.4995587045462273</v>
+        <v>0.4959820441465522</v>
       </c>
       <c r="H57">
-        <v>406.8425649830419</v>
+        <v>403.217855982788</v>
       </c>
       <c r="I57">
-        <v>640.9313368527149</v>
+        <v>677.0070928826559</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>334.8770586970579</v>
+        <v>452.8714811809724</v>
       </c>
       <c r="L57">
-        <v>0.002879873486425141</v>
+        <v>131.4274614677763</v>
       </c>
       <c r="M57">
         <v>207</v>
       </c>
       <c r="N57">
-        <v>57.56955301009808</v>
+        <v>54.32345723510582</v>
       </c>
       <c r="O57">
-        <v>5.000359090662562</v>
+        <v>5.004134666962786</v>
       </c>
       <c r="P57">
-        <v>60.39527279301135</v>
+        <v>57.82342045527168</v>
       </c>
       <c r="Q57">
-        <v>346.9526077074443</v>
+        <v>321.2676416843724</v>
       </c>
       <c r="R57">
-        <v>0.0763559467386912</v>
+        <v>0.7079114892324826</v>
       </c>
       <c r="S57">
-        <v>42.42406680460793</v>
+        <v>60.88346515841204</v>
       </c>
       <c r="T57">
-        <v>5.520838808405867</v>
+        <v>4.272922492713251</v>
       </c>
       <c r="U57">
-        <v>0.3559378965074296</v>
+        <v>0.4223460202292315</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4153,61 +4153,61 @@
         <v>20</v>
       </c>
       <c r="C58">
-        <v>157.5646642210894</v>
+        <v>151.7259553779266</v>
       </c>
       <c r="D58">
-        <v>2.940000483088347</v>
+        <v>2.98709206716451</v>
       </c>
       <c r="E58">
-        <v>1495</v>
+        <v>1081</v>
       </c>
       <c r="F58">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G58">
-        <v>0.490620065716017</v>
+        <v>0.471008388589035</v>
       </c>
       <c r="H58">
-        <v>416.4889086084549</v>
+        <v>425.700043385501</v>
       </c>
       <c r="I58">
-        <v>650.8183115504526</v>
+        <v>679.4358674987704</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>2.064904329909614</v>
+        <v>36.06909969453564</v>
       </c>
       <c r="L58">
-        <v>26.72793837124745</v>
+        <v>249.8787866614322</v>
       </c>
       <c r="M58">
-        <v>207</v>
+        <v>206.9999998393478</v>
       </c>
       <c r="N58">
-        <v>62.85209855592338</v>
+        <v>44.74843906530775</v>
       </c>
       <c r="O58">
-        <v>5.058998290165459</v>
+        <v>5.23225765404155</v>
       </c>
       <c r="P58">
-        <v>57.50651682835997</v>
+        <v>54.8375291679668</v>
       </c>
       <c r="Q58">
-        <v>388.6768770245293</v>
+        <v>375.9776533433518</v>
       </c>
       <c r="R58">
-        <v>0.6871031870189597</v>
+        <v>0.2014306651636619</v>
       </c>
       <c r="S58">
-        <v>41.02910998333617</v>
+        <v>87.0026188061513</v>
       </c>
       <c r="T58">
-        <v>4.108591776077326</v>
+        <v>6.206305522867197</v>
       </c>
       <c r="U58">
-        <v>0.3712729930550065</v>
+        <v>0.4308075079868949</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4215,64 +4215,64 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>172.1192933758271</v>
+        <v>150.0320165200818</v>
       </c>
       <c r="D59">
-        <v>2.940001993647811</v>
+        <v>3.344443817299678</v>
       </c>
       <c r="E59">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G59">
-        <v>0.4795553529732273</v>
+        <v>0.4812803839897557</v>
       </c>
       <c r="H59">
-        <v>409.7955568628286</v>
+        <v>402.0615851363821</v>
       </c>
       <c r="I59">
-        <v>680.5720867602457</v>
+        <v>712.1095639062537</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>461.84101772707</v>
+        <v>46.36953832427251</v>
       </c>
       <c r="L59">
-        <v>0.01583484450818064</v>
+        <v>38.38706438904527</v>
       </c>
       <c r="M59">
-        <v>206.999999999825</v>
+        <v>206.9999998045741</v>
       </c>
       <c r="N59">
-        <v>42.96492034997679</v>
+        <v>46.02673643085738</v>
       </c>
       <c r="O59">
-        <v>5.109095130681961</v>
+        <v>5.173140284080348</v>
       </c>
       <c r="P59">
-        <v>60.32137972755368</v>
+        <v>49.86489146079418</v>
       </c>
       <c r="Q59">
-        <v>339.0725923486523</v>
+        <v>321.03945681034</v>
       </c>
       <c r="R59">
-        <v>0.5764752418312071</v>
+        <v>0.730266280027997</v>
       </c>
       <c r="S59">
-        <v>107.4000081451002</v>
+        <v>78.65704655465623</v>
       </c>
       <c r="T59">
-        <v>3.808109328433943</v>
+        <v>5.353992532802461</v>
       </c>
       <c r="U59">
-        <v>0.4235047174446247</v>
+        <v>0.4235337348276267</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4283,61 +4283,61 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>150.3682722683317</v>
+        <v>162.6442187919518</v>
       </c>
       <c r="D60">
-        <v>3.701803171075658</v>
+        <v>2.9400188223165</v>
       </c>
       <c r="E60">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F60">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="G60">
-        <v>0.4628899888150826</v>
+        <v>0.4836951684772391</v>
       </c>
       <c r="H60">
-        <v>413.2146494528615</v>
+        <v>411.616482123555</v>
       </c>
       <c r="I60">
-        <v>736.8619985671334</v>
+        <v>668.5920644089927</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0.09280144337038465</v>
+        <v>107.0564458661755</v>
       </c>
       <c r="L60">
-        <v>337.5021359252472</v>
+        <v>0.1650187095232911</v>
       </c>
       <c r="M60">
-        <v>206.9960256044582</v>
+        <v>206.9999999998832</v>
       </c>
       <c r="N60">
-        <v>38.20383062692727</v>
+        <v>55.54397440084873</v>
       </c>
       <c r="O60">
-        <v>5.280871730410761</v>
+        <v>5.145823088444955</v>
       </c>
       <c r="P60">
-        <v>47.11032899900782</v>
+        <v>59.89661346277617</v>
       </c>
       <c r="Q60">
-        <v>321.4696919009049</v>
+        <v>321.7931722395221</v>
       </c>
       <c r="R60">
-        <v>0.7045231872903026</v>
+        <v>0.7291698362054722</v>
       </c>
       <c r="S60">
-        <v>87.08425067273885</v>
+        <v>58.5825784239676</v>
       </c>
       <c r="T60">
-        <v>7.153080841051787</v>
+        <v>3.393027815389505</v>
       </c>
       <c r="U60">
-        <v>0.3823865796930173</v>
+        <v>0.363159647038829</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4345,64 +4345,64 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>150.3223999215085</v>
+        <v>218.5945887828128</v>
       </c>
       <c r="D61">
-        <v>2.940001360315096</v>
+        <v>4.437941314681492</v>
       </c>
       <c r="E61">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="F61">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61">
-        <v>0.4915985547597752</v>
+        <v>0.4314644007233958</v>
       </c>
       <c r="H61">
-        <v>421.2955925966339</v>
+        <v>388.1718011272667</v>
       </c>
       <c r="I61">
-        <v>634.0902434145876</v>
+        <v>787.1993630239178</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>159.4408627645153</v>
+        <v>563.1114689929385</v>
       </c>
       <c r="L61">
-        <v>0.001466597968704608</v>
+        <v>47.55740763946365</v>
       </c>
       <c r="M61">
-        <v>207</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N61">
-        <v>40.98723566391801</v>
+        <v>31.55656984573146</v>
       </c>
       <c r="O61">
-        <v>5.058919152725878</v>
+        <v>6.407236830136377</v>
       </c>
       <c r="P61">
-        <v>60.18640822991005</v>
+        <v>46.19104333122111</v>
       </c>
       <c r="Q61">
-        <v>352.3410689965672</v>
+        <v>323.3503714920179</v>
       </c>
       <c r="R61">
-        <v>0.5768546264413166</v>
+        <v>0.4347824932291561</v>
       </c>
       <c r="S61">
-        <v>50.95907933795992</v>
+        <v>130.4149087749313</v>
       </c>
       <c r="T61">
-        <v>2.947620992660291</v>
+        <v>7.797107311626295</v>
       </c>
       <c r="U61">
-        <v>0.3973070523730655</v>
+        <v>0.5283515680599713</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4413,61 +4413,61 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <v>175.2688783387434</v>
+        <v>156.1787442703967</v>
       </c>
       <c r="D62">
-        <v>2.94</v>
+        <v>2.940693202073928</v>
       </c>
       <c r="E62">
         <v>1499</v>
       </c>
       <c r="F62">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G62">
-        <v>0.4966976887413045</v>
+        <v>0.4747591120532034</v>
       </c>
       <c r="H62">
-        <v>430.1607844408434</v>
+        <v>424.6780583295158</v>
       </c>
       <c r="I62">
-        <v>631.6230668023351</v>
+        <v>675.7363321550486</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0.2138832978977242</v>
+        <v>36.35045270314964</v>
       </c>
       <c r="L62">
-        <v>21.36149552226244</v>
+        <v>9.932006403029284</v>
       </c>
       <c r="M62">
-        <v>207</v>
+        <v>206.9999999998727</v>
       </c>
       <c r="N62">
-        <v>61.50837059528828</v>
+        <v>40.49118179199111</v>
       </c>
       <c r="O62">
-        <v>5.008649440038237</v>
+        <v>5.150664051215673</v>
       </c>
       <c r="P62">
-        <v>60.1595104475043</v>
+        <v>59.85436473279562</v>
       </c>
       <c r="Q62">
-        <v>401.5730016903327</v>
+        <v>327.9250984983838</v>
       </c>
       <c r="R62">
-        <v>0.4510672066794487</v>
+        <v>0.5851537422082622</v>
       </c>
       <c r="S62">
-        <v>44.14122758915816</v>
+        <v>40.68188428016131</v>
       </c>
       <c r="T62">
-        <v>3.09901575213131</v>
+        <v>3.927361845589716</v>
       </c>
       <c r="U62">
-        <v>0.3633827793738633</v>
+        <v>0.3593770224329904</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4478,61 +4478,61 @@
         <v>20</v>
       </c>
       <c r="C63">
-        <v>180.4853407933798</v>
+        <v>162.5801207577638</v>
       </c>
       <c r="D63">
-        <v>2.940007913758465</v>
+        <v>2.940000381732928</v>
       </c>
       <c r="E63">
-        <v>1483</v>
+        <v>1397</v>
       </c>
       <c r="F63">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="G63">
-        <v>0.4744223608164205</v>
+        <v>0.4862924646998647</v>
       </c>
       <c r="H63">
-        <v>412.183166958439</v>
+        <v>416.5221194244805</v>
       </c>
       <c r="I63">
-        <v>737.0668006389922</v>
+        <v>663.7325187658154</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>371.0195138943611</v>
+        <v>2.901665907084973</v>
       </c>
       <c r="L63">
-        <v>22.735550655711</v>
+        <v>7.958674946146736</v>
       </c>
       <c r="M63">
-        <v>206.9999995625044</v>
+        <v>207</v>
       </c>
       <c r="N63">
-        <v>51.54808732086297</v>
+        <v>61.16572487145054</v>
       </c>
       <c r="O63">
-        <v>5.106740429484398</v>
+        <v>5.059600528981609</v>
       </c>
       <c r="P63">
-        <v>53.38840572123136</v>
+        <v>59.02529962298946</v>
       </c>
       <c r="Q63">
-        <v>324.8750423804607</v>
+        <v>384.6904932115028</v>
       </c>
       <c r="R63">
-        <v>0.7712903059005364</v>
+        <v>0.3174192569507159</v>
       </c>
       <c r="S63">
-        <v>101.2030590464059</v>
+        <v>39.33165815342052</v>
       </c>
       <c r="T63">
-        <v>5.339736377441362</v>
+        <v>6.330420135245785</v>
       </c>
       <c r="U63">
-        <v>0.4471115861078538</v>
+        <v>0.4250489679797143</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4543,61 +4543,61 @@
         <v>20</v>
       </c>
       <c r="C64">
-        <v>171.5143665172266</v>
+        <v>150.1826544404009</v>
       </c>
       <c r="D64">
-        <v>2.940000083494344</v>
+        <v>2.940000136513607</v>
       </c>
       <c r="E64">
-        <v>1499</v>
+        <v>1472</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G64">
-        <v>0.488202108704197</v>
+        <v>0.4947481441008769</v>
       </c>
       <c r="H64">
-        <v>389.2627803339892</v>
+        <v>409.0471027487602</v>
       </c>
       <c r="I64">
-        <v>747.259613821781</v>
+        <v>666.3120993316627</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>655.7882360348301</v>
+        <v>101.6055240133565</v>
       </c>
       <c r="L64">
-        <v>0.001797001236607577</v>
+        <v>22.10228302781296</v>
       </c>
       <c r="M64">
         <v>207</v>
       </c>
       <c r="N64">
-        <v>55.86975108087084</v>
+        <v>51.24428924147523</v>
       </c>
       <c r="O64">
-        <v>5.020146648085968</v>
+        <v>5.003821808437368</v>
       </c>
       <c r="P64">
-        <v>60.22432788121913</v>
+        <v>59.67838655531855</v>
       </c>
       <c r="Q64">
-        <v>324.4063399548069</v>
+        <v>335.5209274444975</v>
       </c>
       <c r="R64">
-        <v>0.7341325050865547</v>
+        <v>0.08335269623898735</v>
       </c>
       <c r="S64">
-        <v>92.45272713293049</v>
+        <v>51.29456388821504</v>
       </c>
       <c r="T64">
-        <v>6.924384463649753</v>
+        <v>10.39383213291358</v>
       </c>
       <c r="U64">
-        <v>0.4677179444137687</v>
+        <v>0.4446938639836189</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4608,61 +4608,61 @@
         <v>21</v>
       </c>
       <c r="C65">
-        <v>150.0337118891427</v>
+        <v>150.0596415557955</v>
       </c>
       <c r="D65">
-        <v>2.940000034656575</v>
+        <v>3.401456531863798</v>
       </c>
       <c r="E65">
-        <v>1500</v>
+        <v>1058</v>
       </c>
       <c r="F65">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G65">
-        <v>0.4978470268629333</v>
+        <v>0.4668256731448448</v>
       </c>
       <c r="H65">
-        <v>422.5512431053032</v>
+        <v>424.1429579882165</v>
       </c>
       <c r="I65">
-        <v>634.3948142739761</v>
+        <v>696.4042806297911</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>35.52601012405187</v>
+        <v>0.0385120371422905</v>
       </c>
       <c r="L65">
-        <v>31.47672673297194</v>
+        <v>268.5970367238267</v>
       </c>
       <c r="M65">
-        <v>207</v>
+        <v>206.9999867517242</v>
       </c>
       <c r="N65">
-        <v>49.16883151697644</v>
+        <v>31.58754892135972</v>
       </c>
       <c r="O65">
-        <v>5.009214609153665</v>
+        <v>5.264192450275569</v>
       </c>
       <c r="P65">
-        <v>55.23713240452276</v>
+        <v>56.05698863442347</v>
       </c>
       <c r="Q65">
-        <v>337.3290201693254</v>
+        <v>323.9455553124372</v>
       </c>
       <c r="R65">
-        <v>0.1266757897051202</v>
+        <v>0.1001504241478307</v>
       </c>
       <c r="S65">
-        <v>39.28632598748985</v>
+        <v>108.1643641441219</v>
       </c>
       <c r="T65">
-        <v>4.037158035431409</v>
+        <v>5.25829686041132</v>
       </c>
       <c r="U65">
-        <v>0.3313417950998898</v>
+        <v>0.4056570185138653</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4673,61 +4673,61 @@
         <v>20</v>
       </c>
       <c r="C66">
-        <v>191.0187543177537</v>
+        <v>150.1079927644946</v>
       </c>
       <c r="D66">
-        <v>2.940000000001243</v>
+        <v>2.940005798508785</v>
       </c>
       <c r="E66">
-        <v>1493</v>
+        <v>1383</v>
       </c>
       <c r="F66">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G66">
-        <v>0.4872173072616997</v>
+        <v>0.4947732631440248</v>
       </c>
       <c r="H66">
-        <v>427.7706976627642</v>
+        <v>427.1883764189593</v>
       </c>
       <c r="I66">
-        <v>648.3964743537558</v>
+        <v>631.3913250166596</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>187.6309127100293</v>
+        <v>7.596031324373862</v>
       </c>
       <c r="L66">
-        <v>1.357768981378299</v>
+        <v>88.01178887720175</v>
       </c>
       <c r="M66">
         <v>207</v>
       </c>
       <c r="N66">
-        <v>60.42950167496134</v>
+        <v>54.42025969720713</v>
       </c>
       <c r="O66">
-        <v>5.033386004239058</v>
+        <v>5.04658062443519</v>
       </c>
       <c r="P66">
-        <v>59.59442540210932</v>
+        <v>57.18090329337641</v>
       </c>
       <c r="Q66">
-        <v>358.7780845964157</v>
+        <v>350.4606783304405</v>
       </c>
       <c r="R66">
-        <v>0.08402202208374988</v>
+        <v>0.3605957780788256</v>
       </c>
       <c r="S66">
-        <v>39.6662851259856</v>
+        <v>42.76761966885631</v>
       </c>
       <c r="T66">
-        <v>5.059580947859789</v>
+        <v>5.849347575388425</v>
       </c>
       <c r="U66">
-        <v>0.411214818075945</v>
+        <v>0.3635660449548266</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4738,61 +4738,61 @@
         <v>20</v>
       </c>
       <c r="C67">
-        <v>219.8365894077417</v>
+        <v>150.0047285497331</v>
       </c>
       <c r="D67">
-        <v>2.940000015749257</v>
+        <v>2.94</v>
       </c>
       <c r="E67">
-        <v>1128</v>
+        <v>1500</v>
       </c>
       <c r="F67">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>0.4611799646223493</v>
+        <v>0.4999962517505884</v>
       </c>
       <c r="H67">
-        <v>418.0493220010487</v>
+        <v>411.2237530340876</v>
       </c>
       <c r="I67">
-        <v>713.2715338031165</v>
+        <v>630.1527078107646</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3.084751902364364</v>
+        <v>530.0331827932068</v>
       </c>
       <c r="L67">
-        <v>11.20696577765064</v>
+        <v>0.2131451353136263</v>
       </c>
       <c r="M67">
-        <v>206.6806268259174</v>
+        <v>207</v>
       </c>
       <c r="N67">
-        <v>60.75348697282377</v>
+        <v>64.16856317777891</v>
       </c>
       <c r="O67">
-        <v>5.254970714237097</v>
+        <v>5.000000038509703</v>
       </c>
       <c r="P67">
-        <v>58.0696486212724</v>
+        <v>60.36290151406973</v>
       </c>
       <c r="Q67">
-        <v>358.2386861734714</v>
+        <v>368.5024194123899</v>
       </c>
       <c r="R67">
-        <v>0.6291932858803242</v>
+        <v>0.0751529217644489</v>
       </c>
       <c r="S67">
-        <v>64.09090237029775</v>
+        <v>41.12590766081378</v>
       </c>
       <c r="T67">
-        <v>4.757297784255959</v>
+        <v>5.577128015856225</v>
       </c>
       <c r="U67">
-        <v>0.4653895316545524</v>
+        <v>0.3581247321354584</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4803,61 +4803,61 @@
         <v>20</v>
       </c>
       <c r="C68">
-        <v>152.9825702222934</v>
+        <v>159.8811053095801</v>
       </c>
       <c r="D68">
-        <v>2.940001810866401</v>
+        <v>2.940000000673466</v>
       </c>
       <c r="E68">
-        <v>1428</v>
+        <v>1500</v>
       </c>
       <c r="F68">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G68">
-        <v>0.4906099816329361</v>
+        <v>0.4921274565678824</v>
       </c>
       <c r="H68">
-        <v>405.4169099838859</v>
+        <v>421.2191768855648</v>
       </c>
       <c r="I68">
-        <v>711.1065034302978</v>
+        <v>655.2058195536083</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>303.8692376376401</v>
+        <v>124.6515303322364</v>
       </c>
       <c r="L68">
-        <v>710.4534218872619</v>
+        <v>0.5112643764590906</v>
       </c>
       <c r="M68">
         <v>207</v>
       </c>
       <c r="N68">
-        <v>60.63706799023895</v>
+        <v>52.51865618211674</v>
       </c>
       <c r="O68">
-        <v>5.018858867077345</v>
+        <v>5.020661445580625</v>
       </c>
       <c r="P68">
-        <v>39.87985959271343</v>
+        <v>59.57101785575139</v>
       </c>
       <c r="Q68">
-        <v>321.4696002983886</v>
+        <v>407.7698970734863</v>
       </c>
       <c r="R68">
-        <v>0.4455054463099409</v>
+        <v>0.3559334988463355</v>
       </c>
       <c r="S68">
-        <v>64.00467489707839</v>
+        <v>79.23919741967073</v>
       </c>
       <c r="T68">
-        <v>7.69058017010312</v>
+        <v>5.775807225468583</v>
       </c>
       <c r="U68">
-        <v>0.4111223135054267</v>
+        <v>0.4291887407210486</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4868,61 +4868,61 @@
         <v>20</v>
       </c>
       <c r="C69">
-        <v>188.0350428313977</v>
+        <v>154.8230084247618</v>
       </c>
       <c r="D69">
-        <v>2.955007621108429</v>
+        <v>2.940563132771917</v>
       </c>
       <c r="E69">
-        <v>1051</v>
+        <v>1158</v>
       </c>
       <c r="F69">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G69">
-        <v>0.4607746540818317</v>
+        <v>0.4785874504872489</v>
       </c>
       <c r="H69">
-        <v>412.0738481057715</v>
+        <v>422.2303799138469</v>
       </c>
       <c r="I69">
-        <v>755.5231405305528</v>
+        <v>671.1125898194134</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>110.6397876469718</v>
+        <v>123.2922060940649</v>
       </c>
       <c r="L69">
-        <v>3.333547970075068</v>
+        <v>1.9564465380824</v>
       </c>
       <c r="M69">
-        <v>206.1546702743745</v>
+        <v>206.9999999999847</v>
       </c>
       <c r="N69">
-        <v>44.84823807631869</v>
+        <v>51.5064003582663</v>
       </c>
       <c r="O69">
-        <v>5.318933164139076</v>
+        <v>5.132131570492425</v>
       </c>
       <c r="P69">
-        <v>56.24721482446626</v>
+        <v>52.23236710751528</v>
       </c>
       <c r="Q69">
-        <v>339.3222401604053</v>
+        <v>338.8720063810898</v>
       </c>
       <c r="R69">
-        <v>0.6146858363577098</v>
+        <v>0.248644573895064</v>
       </c>
       <c r="S69">
-        <v>41.59549877282779</v>
+        <v>74.06505458826533</v>
       </c>
       <c r="T69">
-        <v>5.135582533242335</v>
+        <v>5.252967111747108</v>
       </c>
       <c r="U69">
-        <v>0.4225799516162636</v>
+        <v>0.4306580397480693</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4933,61 +4933,61 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>215.2448151022315</v>
+        <v>154.0962451269758</v>
       </c>
       <c r="D70">
-        <v>3.75873038453859</v>
+        <v>2.942136865461137</v>
       </c>
       <c r="E70">
-        <v>1044</v>
+        <v>1427</v>
       </c>
       <c r="F70">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G70">
-        <v>0.4313186027765673</v>
+        <v>0.4728897695867557</v>
       </c>
       <c r="H70">
-        <v>427.1050374683489</v>
+        <v>411.3165431536181</v>
       </c>
       <c r="I70">
-        <v>760.2750444431334</v>
+        <v>735.2183181752</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1.725831384047714</v>
+        <v>27.64721642387092</v>
       </c>
       <c r="L70">
-        <v>418.748913381856</v>
+        <v>176.8960943345214</v>
       </c>
       <c r="M70">
-        <v>181.4840437155993</v>
+        <v>206.9999998569007</v>
       </c>
       <c r="N70">
-        <v>30.32255868337358</v>
+        <v>36.0240341253179</v>
       </c>
       <c r="O70">
-        <v>6.47717783188719</v>
+        <v>5.1138753994788</v>
       </c>
       <c r="P70">
-        <v>42.83100055720893</v>
+        <v>57.7411833832741</v>
       </c>
       <c r="Q70">
-        <v>334.8870472659004</v>
+        <v>321.2249184337982</v>
       </c>
       <c r="R70">
-        <v>0.8322874585154496</v>
+        <v>0.4661526472261294</v>
       </c>
       <c r="S70">
-        <v>145.5633200690645</v>
+        <v>188.5082739135919</v>
       </c>
       <c r="T70">
-        <v>3.29868598041937</v>
+        <v>7.607065230976376</v>
       </c>
       <c r="U70">
-        <v>0.4361371832604874</v>
+        <v>0.4779479490920848</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4995,64 +4995,64 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>156.469988519756</v>
+        <v>198.1838810979751</v>
       </c>
       <c r="D71">
-        <v>2.944007561279792</v>
+        <v>2.951233419532147</v>
       </c>
       <c r="E71">
-        <v>1055</v>
+        <v>1086</v>
       </c>
       <c r="F71">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G71">
-        <v>0.4681588897657608</v>
+        <v>0.4543042491933421</v>
       </c>
       <c r="H71">
-        <v>433.2281444824266</v>
+        <v>401.3355381051783</v>
       </c>
       <c r="I71">
-        <v>639.8234676780098</v>
+        <v>746.0280791408029</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0.04719767363993529</v>
+        <v>426.9034498160881</v>
       </c>
       <c r="L71">
-        <v>551.3692631538185</v>
+        <v>2.129792364123326</v>
       </c>
       <c r="M71">
-        <v>206.9999999990093</v>
+        <v>181.9042255244221</v>
       </c>
       <c r="N71">
-        <v>36.26801760934711</v>
+        <v>36.76862217109134</v>
       </c>
       <c r="O71">
-        <v>5.479574996015448</v>
+        <v>5.587659300772923</v>
       </c>
       <c r="P71">
-        <v>22.02406218214855</v>
+        <v>49.46251450340289</v>
       </c>
       <c r="Q71">
-        <v>417.2092900623234</v>
+        <v>324.1854312643771</v>
       </c>
       <c r="R71">
-        <v>0.8434808133362525</v>
+        <v>0.7538692095579517</v>
       </c>
       <c r="S71">
-        <v>42.42558835848043</v>
+        <v>81.87446134299879</v>
       </c>
       <c r="T71">
-        <v>2.814893136681271</v>
+        <v>5.992897801177669</v>
       </c>
       <c r="U71">
-        <v>0.2728254534989765</v>
+        <v>0.4389645745986439</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5060,64 +5060,64 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>158.524753078118</v>
+        <v>150.0289530929014</v>
       </c>
       <c r="D72">
-        <v>2.940000000000786</v>
+        <v>2.940004252690198</v>
       </c>
       <c r="E72">
-        <v>1453</v>
+        <v>1500</v>
       </c>
       <c r="F72">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G72">
-        <v>0.4950382223700634</v>
+        <v>0.4959038700299525</v>
       </c>
       <c r="H72">
-        <v>405.0720867021168</v>
+        <v>415.7508138283906</v>
       </c>
       <c r="I72">
-        <v>646.1803670932328</v>
+        <v>640.4575736767758</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>357.0563725403194</v>
+        <v>26.90779001234665</v>
       </c>
       <c r="L72">
-        <v>1.646755225561692</v>
+        <v>2.255888739746187</v>
       </c>
       <c r="M72">
         <v>207</v>
       </c>
       <c r="N72">
-        <v>57.6492590436385</v>
+        <v>51.60246867373276</v>
       </c>
       <c r="O72">
-        <v>5.011182516113416</v>
+        <v>5.022652063049002</v>
       </c>
       <c r="P72">
-        <v>59.41717152081284</v>
+        <v>59.75789457447811</v>
       </c>
       <c r="Q72">
-        <v>321.0358051977112</v>
+        <v>358.4335655651666</v>
       </c>
       <c r="R72">
-        <v>0.6672994077757245</v>
+        <v>0.3510725208771862</v>
       </c>
       <c r="S72">
-        <v>53.28829208226664</v>
+        <v>42.97414946928762</v>
       </c>
       <c r="T72">
-        <v>4.352347531503888</v>
+        <v>3.442354760031835</v>
       </c>
       <c r="U72">
-        <v>0.3742634721401585</v>
+        <v>0.3579689253621641</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5128,61 +5128,61 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>219.430266708207</v>
+        <v>181.5270755137335</v>
       </c>
       <c r="D73">
-        <v>3.009895222966177</v>
+        <v>2.94000473732211</v>
       </c>
       <c r="E73">
-        <v>1045</v>
+        <v>1468</v>
       </c>
       <c r="F73">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G73">
-        <v>0.4338741137946785</v>
+        <v>0.4714830412408491</v>
       </c>
       <c r="H73">
-        <v>417.0413484557623</v>
+        <v>419.1610346694906</v>
       </c>
       <c r="I73">
-        <v>780.236062933671</v>
+        <v>681.7916925652078</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>26.1915373696344</v>
+        <v>35.4573243788472</v>
       </c>
       <c r="L73">
-        <v>33.55995714098079</v>
+        <v>80.13732372054615</v>
       </c>
       <c r="M73">
-        <v>181.4840437159417</v>
+        <v>206.9999999828214</v>
       </c>
       <c r="N73">
-        <v>41.2262027070438</v>
+        <v>46.93794026185284</v>
       </c>
       <c r="O73">
-        <v>6.052691726198551</v>
+        <v>5.120249169849526</v>
       </c>
       <c r="P73">
-        <v>49.5284159088955</v>
+        <v>55.58593407516312</v>
       </c>
       <c r="Q73">
-        <v>327.8829613327895</v>
+        <v>330.7385360439821</v>
       </c>
       <c r="R73">
-        <v>0.5463697789373561</v>
+        <v>0.2345927223287716</v>
       </c>
       <c r="S73">
-        <v>59.16137465717728</v>
+        <v>43.94061015202131</v>
       </c>
       <c r="T73">
-        <v>7.285849841215184</v>
+        <v>7.174352260591775</v>
       </c>
       <c r="U73">
-        <v>0.422714806964795</v>
+        <v>0.4518718120027221</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5190,64 +5190,64 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74">
-        <v>214.5903036444043</v>
+        <v>150.1866719115266</v>
       </c>
       <c r="D74">
-        <v>6.966311547569789</v>
+        <v>2.940506472440747</v>
       </c>
       <c r="E74">
-        <v>1044</v>
+        <v>1350</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G74">
-        <v>0.4269947212583552</v>
+        <v>0.4862457144574658</v>
       </c>
       <c r="H74">
-        <v>419.3942960217325</v>
+        <v>412.1851583921227</v>
       </c>
       <c r="I74">
-        <v>785.6702159850264</v>
+        <v>666.9151450491495</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>6.001770157909163E-05</v>
+        <v>385.2518743694406</v>
       </c>
       <c r="L74">
-        <v>1327.67307568077</v>
+        <v>554.2152069643835</v>
       </c>
       <c r="M74">
-        <v>181.4840437155992</v>
+        <v>207</v>
       </c>
       <c r="N74">
-        <v>30.520441238443</v>
+        <v>41.24701746701604</v>
       </c>
       <c r="O74">
-        <v>6.793595420878018</v>
+        <v>5.101596066575043</v>
       </c>
       <c r="P74">
-        <v>35.20101821776451</v>
+        <v>30.26655281790822</v>
       </c>
       <c r="Q74">
-        <v>321.0001477039746</v>
+        <v>331.7447636219459</v>
       </c>
       <c r="R74">
-        <v>0.7531104281848793</v>
+        <v>0.2198365822336568</v>
       </c>
       <c r="S74">
-        <v>110.3861896209831</v>
+        <v>68.09825667003119</v>
       </c>
       <c r="T74">
-        <v>4.860577904023602</v>
+        <v>4.208061900731085</v>
       </c>
       <c r="U74">
-        <v>0.464542089270473</v>
+        <v>0.4116949458942543</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5258,61 +5258,61 @@
         <v>20</v>
       </c>
       <c r="C75">
-        <v>217.0852937354917</v>
+        <v>170.9354805873024</v>
       </c>
       <c r="D75">
-        <v>3.670101347715476</v>
+        <v>3.017113446184869</v>
       </c>
       <c r="E75">
-        <v>1044</v>
+        <v>1316</v>
       </c>
       <c r="F75">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G75">
-        <v>0.4301091845632877</v>
+        <v>0.4643689190658987</v>
       </c>
       <c r="H75">
-        <v>433.7772287399223</v>
+        <v>394.9556998138567</v>
       </c>
       <c r="I75">
-        <v>761.5857301758907</v>
+        <v>760.6364359493097</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1.260739436371149</v>
+        <v>436.1663286404175</v>
       </c>
       <c r="L75">
-        <v>686.1419768597515</v>
+        <v>36.82545110296668</v>
       </c>
       <c r="M75">
-        <v>181.4840437156094</v>
+        <v>206.3209813238943</v>
       </c>
       <c r="N75">
-        <v>33.28848339596041</v>
+        <v>44.70966907005713</v>
       </c>
       <c r="O75">
-        <v>6.388240377699466</v>
+        <v>5.25979461035165</v>
       </c>
       <c r="P75">
-        <v>43.53927173702623</v>
+        <v>42.87722898963519</v>
       </c>
       <c r="Q75">
-        <v>321.258530098432</v>
+        <v>329.9524098589118</v>
       </c>
       <c r="R75">
-        <v>0.7799332122968706</v>
+        <v>0.8277467004144643</v>
       </c>
       <c r="S75">
-        <v>50.62773180668161</v>
+        <v>106.2073285687746</v>
       </c>
       <c r="T75">
-        <v>3.637663776603678</v>
+        <v>7.187081774048053</v>
       </c>
       <c r="U75">
-        <v>0.4169995092589971</v>
+        <v>0.4474672079304765</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5323,61 +5323,61 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>150.2140808022038</v>
+        <v>198.4965175681699</v>
       </c>
       <c r="D76">
-        <v>2.94000000054804</v>
+        <v>4.873040598863463</v>
       </c>
       <c r="E76">
-        <v>1474</v>
+        <v>1044</v>
       </c>
       <c r="F76">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G76">
-        <v>0.495168537666876</v>
+        <v>0.4318534419934887</v>
       </c>
       <c r="H76">
-        <v>443.2240089952224</v>
+        <v>440.0101505143534</v>
       </c>
       <c r="I76">
-        <v>630.1380510042133</v>
+        <v>704.429719520266</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0.02371003521735844</v>
+        <v>0.002494091548992864</v>
       </c>
       <c r="L76">
-        <v>138.7705474355735</v>
+        <v>26.76235039466402</v>
       </c>
       <c r="M76">
-        <v>207</v>
+        <v>181.484043717028</v>
       </c>
       <c r="N76">
-        <v>40.68923584814189</v>
+        <v>34.34000195111867</v>
       </c>
       <c r="O76">
-        <v>5.030955668153647</v>
+        <v>6.622928230941327</v>
       </c>
       <c r="P76">
-        <v>55.60357158563841</v>
+        <v>55.26644165758442</v>
       </c>
       <c r="Q76">
-        <v>411.6127257122413</v>
+        <v>408.566155739466</v>
       </c>
       <c r="R76">
-        <v>0.2394387228659317</v>
+        <v>0.4310000587897434</v>
       </c>
       <c r="S76">
-        <v>45.02365705593697</v>
+        <v>42.88389638767477</v>
       </c>
       <c r="T76">
-        <v>4.092157697817476</v>
+        <v>3.519297650902767</v>
       </c>
       <c r="U76">
-        <v>0.3533150743860394</v>
+        <v>0.4370150701944975</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5388,61 +5388,61 @@
         <v>20</v>
       </c>
       <c r="C77">
-        <v>150.0508238249587</v>
+        <v>191.5850260323171</v>
       </c>
       <c r="D77">
-        <v>4.846022365909031</v>
+        <v>4.9723680909603</v>
       </c>
       <c r="E77">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F77">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G77">
-        <v>0.4552341435278567</v>
+        <v>0.4373937551888254</v>
       </c>
       <c r="H77">
-        <v>446.3833407958773</v>
+        <v>404.8773502067847</v>
       </c>
       <c r="I77">
-        <v>638.8053788134964</v>
+        <v>784.3405257084002</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0.1441189649594603</v>
+        <v>36.28569376236716</v>
       </c>
       <c r="L77">
-        <v>576.6129320471248</v>
+        <v>151.6572443477031</v>
       </c>
       <c r="M77">
-        <v>206.9993147842174</v>
+        <v>181.484043720734</v>
       </c>
       <c r="N77">
-        <v>30.85014160342087</v>
+        <v>34.20414829853092</v>
       </c>
       <c r="O77">
-        <v>5.625781272223339</v>
+        <v>5.900661525812199</v>
       </c>
       <c r="P77">
-        <v>53.75552442757375</v>
+        <v>44.86373775413425</v>
       </c>
       <c r="Q77">
-        <v>392.8934579946956</v>
+        <v>322.3994947880474</v>
       </c>
       <c r="R77">
-        <v>0.6910173657373646</v>
+        <v>0.7095046640710091</v>
       </c>
       <c r="S77">
-        <v>52.37472709778925</v>
+        <v>122.6220624108479</v>
       </c>
       <c r="T77">
-        <v>3.020157916641219</v>
+        <v>8.011044712774448</v>
       </c>
       <c r="U77">
-        <v>0.4163740338788429</v>
+        <v>0.5010155990213225</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5450,64 +5450,64 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78">
-        <v>210.9863177946213</v>
+        <v>150.9240724149744</v>
       </c>
       <c r="D78">
-        <v>6.955013176390583</v>
+        <v>7.274154704614587</v>
       </c>
       <c r="E78">
         <v>1044</v>
       </c>
       <c r="F78">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>0.4281821381590966</v>
+        <v>0.4362385236430683</v>
       </c>
       <c r="H78">
-        <v>409.0642480207837</v>
+        <v>431.2607871061782</v>
       </c>
       <c r="I78">
-        <v>784.0510441038492</v>
+        <v>676.536713613461</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>26.65879223774869</v>
+        <v>0.00277046342027828</v>
       </c>
       <c r="L78">
-        <v>247.8438786464052</v>
+        <v>1057.850540124514</v>
       </c>
       <c r="M78">
-        <v>181.4840437155992</v>
+        <v>181.4840775807093</v>
       </c>
       <c r="N78">
-        <v>30.97575232488568</v>
+        <v>31.73706697145633</v>
       </c>
       <c r="O78">
-        <v>6.718698129680416</v>
+        <v>6.436198891816101</v>
       </c>
       <c r="P78">
-        <v>29.72622441036403</v>
+        <v>19.62890750955399</v>
       </c>
       <c r="Q78">
-        <v>346.940083941686</v>
+        <v>342.7045583945253</v>
       </c>
       <c r="R78">
-        <v>0.8498445614278622</v>
+        <v>0.6448409398983783</v>
       </c>
       <c r="S78">
-        <v>253.9684889598048</v>
+        <v>46.3178294322995</v>
       </c>
       <c r="T78">
-        <v>3.450561315551736</v>
+        <v>4.153858111173192</v>
       </c>
       <c r="U78">
-        <v>0.4465942047362736</v>
+        <v>0.3959240138466626</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5518,61 +5518,61 @@
         <v>20</v>
       </c>
       <c r="C79">
-        <v>220.208401723311</v>
+        <v>213.9866446045415</v>
       </c>
       <c r="D79">
-        <v>3.003831967498736</v>
+        <v>2.958176416013541</v>
       </c>
       <c r="E79">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F79">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G79">
-        <v>0.4396216241728385</v>
+        <v>0.4447205049964836</v>
       </c>
       <c r="H79">
-        <v>413.2937723586033</v>
+        <v>419.5781141192811</v>
       </c>
       <c r="I79">
-        <v>749.4118650854414</v>
+        <v>729.1681988329917</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>151.7718906295289</v>
+        <v>2.859059030862111</v>
       </c>
       <c r="L79">
-        <v>0.05072701485908737</v>
+        <v>1105.1291000684</v>
       </c>
       <c r="M79">
-        <v>181.4840437165789</v>
+        <v>181.5109876269315</v>
       </c>
       <c r="N79">
-        <v>50.73980576355405</v>
+        <v>55.85314007914535</v>
       </c>
       <c r="O79">
-        <v>6.264085156253579</v>
+        <v>5.699955154073575</v>
       </c>
       <c r="P79">
-        <v>51.79315431214966</v>
+        <v>21.74177261333627</v>
       </c>
       <c r="Q79">
-        <v>414.6354027565516</v>
+        <v>351.9762280556037</v>
       </c>
       <c r="R79">
-        <v>0.8349517075314354</v>
+        <v>0.7367808900702626</v>
       </c>
       <c r="S79">
-        <v>61.08240933193253</v>
+        <v>71.89422753841144</v>
       </c>
       <c r="T79">
-        <v>3.986062002645801</v>
+        <v>5.385465642428052</v>
       </c>
       <c r="U79">
-        <v>0.4037722838232403</v>
+        <v>0.456292671047821</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5583,61 +5583,61 @@
         <v>20</v>
       </c>
       <c r="C80">
-        <v>150.0223536049491</v>
+        <v>153.6705066473973</v>
       </c>
       <c r="D80">
-        <v>2.940000000013224</v>
+        <v>2.940269153728224</v>
       </c>
       <c r="E80">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G80">
-        <v>0.4988581974925076</v>
+        <v>0.487435301896718</v>
       </c>
       <c r="H80">
-        <v>408.2836676132044</v>
+        <v>397.1244279717339</v>
       </c>
       <c r="I80">
-        <v>650.9070114664368</v>
+        <v>696.4854356324757</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1051.901967781723</v>
+        <v>373.4443184761897</v>
       </c>
       <c r="L80">
-        <v>5.517412811163612</v>
+        <v>0.5205671354384148</v>
       </c>
       <c r="M80">
         <v>207</v>
       </c>
       <c r="N80">
-        <v>53.7136864659589</v>
+        <v>45.28204634096769</v>
       </c>
       <c r="O80">
-        <v>5.000433882577791</v>
+        <v>5.05683241171183</v>
       </c>
       <c r="P80">
-        <v>59.97547905130883</v>
+        <v>58.15743630913415</v>
       </c>
       <c r="Q80">
-        <v>358.3277816721804</v>
+        <v>346.7839562703527</v>
       </c>
       <c r="R80">
-        <v>0.470599656120921</v>
+        <v>0.7693639378024516</v>
       </c>
       <c r="S80">
-        <v>71.98412332366024</v>
+        <v>104.7651201131375</v>
       </c>
       <c r="T80">
-        <v>6.804333794309029</v>
+        <v>7.452421311840167</v>
       </c>
       <c r="U80">
-        <v>0.481556318154003</v>
+        <v>0.4332339229846232</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5648,61 +5648,61 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <v>161.7209040504157</v>
+        <v>211.8527805281238</v>
       </c>
       <c r="D81">
-        <v>2.940001103878477</v>
+        <v>2.95105709411842</v>
       </c>
       <c r="E81">
-        <v>1386</v>
+        <v>1044</v>
       </c>
       <c r="F81">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G81">
-        <v>0.4779406004295489</v>
+        <v>0.444227375669811</v>
       </c>
       <c r="H81">
-        <v>426.6657368976798</v>
+        <v>436.9298684252469</v>
       </c>
       <c r="I81">
-        <v>656.8749917023804</v>
+        <v>637.269987031159</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>8.815488948807594</v>
+        <v>0.030861099613947</v>
       </c>
       <c r="L81">
-        <v>256.4331317232641</v>
+        <v>945.4037435689105</v>
       </c>
       <c r="M81">
-        <v>207</v>
+        <v>181.53007541599</v>
       </c>
       <c r="N81">
-        <v>35.22569500224776</v>
+        <v>50.46545211782228</v>
       </c>
       <c r="O81">
-        <v>5.111651269934105</v>
+        <v>6.246395905134908</v>
       </c>
       <c r="P81">
-        <v>58.00637536367532</v>
+        <v>39.09403961242338</v>
       </c>
       <c r="Q81">
-        <v>331.5351229983133</v>
+        <v>361.035105836906</v>
       </c>
       <c r="R81">
-        <v>0.6352969321520873</v>
+        <v>0.7992971945017185</v>
       </c>
       <c r="S81">
-        <v>65.55855636649034</v>
+        <v>39.16198573778369</v>
       </c>
       <c r="T81">
-        <v>3.740360150779282</v>
+        <v>3.374963249762181</v>
       </c>
       <c r="U81">
-        <v>0.448061024609782</v>
+        <v>0.3551472258047366</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5713,61 +5713,61 @@
         <v>20</v>
       </c>
       <c r="C82">
-        <v>189.8753527993848</v>
+        <v>152.8573985263416</v>
       </c>
       <c r="D82">
-        <v>4.029663492610286</v>
+        <v>2.94000000000034</v>
       </c>
       <c r="E82">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F82">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G82">
-        <v>0.4420179273659269</v>
+        <v>0.4971475184519955</v>
       </c>
       <c r="H82">
-        <v>407.5581257519361</v>
+        <v>409.6964433644841</v>
       </c>
       <c r="I82">
-        <v>761.6395968872201</v>
+        <v>639.0716208699548</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>8.132905583113875</v>
+        <v>142.8005187053615</v>
       </c>
       <c r="L82">
-        <v>182.7206344593436</v>
+        <v>13.45907960977684</v>
       </c>
       <c r="M82">
-        <v>181.4840437354154</v>
+        <v>207</v>
       </c>
       <c r="N82">
-        <v>42.96888672298024</v>
+        <v>50.07490420077814</v>
       </c>
       <c r="O82">
-        <v>6.08523519788687</v>
+        <v>5.005631010715067</v>
       </c>
       <c r="P82">
-        <v>42.93129098037058</v>
+        <v>58.91990077859182</v>
       </c>
       <c r="Q82">
-        <v>336.8310491515037</v>
+        <v>367.8484236698311</v>
       </c>
       <c r="R82">
-        <v>0.7182240825974875</v>
+        <v>0.5601975581097757</v>
       </c>
       <c r="S82">
-        <v>40.90576070966581</v>
+        <v>49.69046520768902</v>
       </c>
       <c r="T82">
-        <v>7.074378750404533</v>
+        <v>3.451610208388243</v>
       </c>
       <c r="U82">
-        <v>0.4100463479268113</v>
+        <v>0.4200101154561828</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5778,61 +5778,61 @@
         <v>20</v>
       </c>
       <c r="C83">
-        <v>191.9872855512214</v>
+        <v>170.8776064203916</v>
       </c>
       <c r="D83">
-        <v>2.946203713089781</v>
+        <v>4.87757163548001</v>
       </c>
       <c r="E83">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="F83">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G83">
-        <v>0.4585065103554178</v>
+        <v>0.4392126128178671</v>
       </c>
       <c r="H83">
-        <v>408.2445433065127</v>
+        <v>428.9946095325467</v>
       </c>
       <c r="I83">
-        <v>739.7051652143542</v>
+        <v>690.1585744584879</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>211.2025308085105</v>
+        <v>0.1534505694463758</v>
       </c>
       <c r="L83">
-        <v>23.98606307143185</v>
+        <v>419.7001975300856</v>
       </c>
       <c r="M83">
-        <v>204.1316985398838</v>
+        <v>181.4840475708434</v>
       </c>
       <c r="N83">
-        <v>37.1773861684341</v>
+        <v>39.37579245670946</v>
       </c>
       <c r="O83">
-        <v>5.388999298145856</v>
+        <v>6.281287703291336</v>
       </c>
       <c r="P83">
-        <v>40.95668958985043</v>
+        <v>29.72888800674948</v>
       </c>
       <c r="Q83">
-        <v>324.1295865535318</v>
+        <v>394.4948433246432</v>
       </c>
       <c r="R83">
-        <v>0.744992481089748</v>
+        <v>0.8414903452900294</v>
       </c>
       <c r="S83">
-        <v>130.4936524901683</v>
+        <v>50.23791338223609</v>
       </c>
       <c r="T83">
-        <v>4.007230761597994</v>
+        <v>3.18972352066203</v>
       </c>
       <c r="U83">
-        <v>0.3668792642463401</v>
+        <v>0.4187298241348798</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5843,61 +5843,61 @@
         <v>20</v>
       </c>
       <c r="C84">
-        <v>150.0312854625054</v>
+        <v>219.5889114407793</v>
       </c>
       <c r="D84">
-        <v>2.940000004962323</v>
+        <v>2.979262477492533</v>
       </c>
       <c r="E84">
-        <v>1498</v>
+        <v>1044</v>
       </c>
       <c r="F84">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G84">
-        <v>0.4943855067143554</v>
+        <v>0.4369710057703171</v>
       </c>
       <c r="H84">
-        <v>447.029290670323</v>
+        <v>409.8694633762132</v>
       </c>
       <c r="I84">
-        <v>630.0153376997978</v>
+        <v>773.9142639042576</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0.00102381873011587</v>
+        <v>120.6868466841343</v>
       </c>
       <c r="L84">
-        <v>344.7989578682613</v>
+        <v>33.12102589721616</v>
       </c>
       <c r="M84">
-        <v>207</v>
+        <v>181.4840437225273</v>
       </c>
       <c r="N84">
-        <v>43.1506355681028</v>
+        <v>40.14068179385972</v>
       </c>
       <c r="O84">
-        <v>5.033289833535112</v>
+        <v>5.842519535858175</v>
       </c>
       <c r="P84">
-        <v>56.54429670563163</v>
+        <v>46.17022454559959</v>
       </c>
       <c r="Q84">
-        <v>403.7490503862736</v>
+        <v>363.9798987345198</v>
       </c>
       <c r="R84">
-        <v>0.3019302399385566</v>
+        <v>0.3533303968839461</v>
       </c>
       <c r="S84">
-        <v>40.688478441979</v>
+        <v>77.95209762517328</v>
       </c>
       <c r="T84">
-        <v>3.113460592440141</v>
+        <v>10.15794347172101</v>
       </c>
       <c r="U84">
-        <v>0.2973983094982284</v>
+        <v>0.497790567069708</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5905,64 +5905,64 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>150.0077053461947</v>
+        <v>150.3403387446935</v>
       </c>
       <c r="D85">
-        <v>2.940060585792187</v>
+        <v>2.94</v>
       </c>
       <c r="E85">
-        <v>1445</v>
+        <v>1500</v>
       </c>
       <c r="F85">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G85">
-        <v>0.494569936542316</v>
+        <v>0.4995565547048327</v>
       </c>
       <c r="H85">
-        <v>424.1460271267686</v>
+        <v>441.7818585735283</v>
       </c>
       <c r="I85">
-        <v>640.1663338637621</v>
+        <v>630.0161628614645</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>10.664288892233</v>
+        <v>29.42263367663732</v>
       </c>
       <c r="L85">
-        <v>2.855203505967332</v>
+        <v>103.6244748793306</v>
       </c>
       <c r="M85">
         <v>207</v>
       </c>
       <c r="N85">
-        <v>49.28894645972866</v>
+        <v>58.10586356255499</v>
       </c>
       <c r="O85">
-        <v>5.026521940731941</v>
+        <v>5.001438363874914</v>
       </c>
       <c r="P85">
-        <v>55.79534640946402</v>
+        <v>58.25069635141302</v>
       </c>
       <c r="Q85">
-        <v>401.5308153653592</v>
+        <v>418.2297554119452</v>
       </c>
       <c r="R85">
-        <v>0.6260278741333588</v>
+        <v>0.06763580687775733</v>
       </c>
       <c r="S85">
-        <v>93.59838586301649</v>
+        <v>39.28370954182496</v>
       </c>
       <c r="T85">
-        <v>4.753589874330892</v>
+        <v>4.195777120368697</v>
       </c>
       <c r="U85">
-        <v>0.4492949530115338</v>
+        <v>0.3129855884767689</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5973,61 +5973,61 @@
         <v>20</v>
       </c>
       <c r="C86">
-        <v>171.6890271640628</v>
+        <v>151.4761279325887</v>
       </c>
       <c r="D86">
-        <v>2.943236369088528</v>
+        <v>2.940000456401098</v>
       </c>
       <c r="E86">
-        <v>1422</v>
+        <v>1500</v>
       </c>
       <c r="F86">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>0.4626005292577374</v>
+        <v>0.4938322218160092</v>
       </c>
       <c r="H86">
-        <v>420.0358648861145</v>
+        <v>400.971972310218</v>
       </c>
       <c r="I86">
-        <v>723.7013285862882</v>
+        <v>694.48020127094</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>55.74412507504486</v>
+        <v>452.4165205776376</v>
       </c>
       <c r="L86">
-        <v>134.19432939154</v>
+        <v>18.57900299262754</v>
       </c>
       <c r="M86">
-        <v>206.9998371419786</v>
+        <v>207</v>
       </c>
       <c r="N86">
-        <v>35.71302411988996</v>
+        <v>57.11176059929593</v>
       </c>
       <c r="O86">
-        <v>5.281610966123486</v>
+        <v>5.009381950434059</v>
       </c>
       <c r="P86">
-        <v>48.0417429943903</v>
+        <v>59.43921261332735</v>
       </c>
       <c r="Q86">
-        <v>325.2484128455838</v>
+        <v>327.2666678852455</v>
       </c>
       <c r="R86">
-        <v>0.676618252524591</v>
+        <v>0.121080393512096</v>
       </c>
       <c r="S86">
-        <v>67.86263465802091</v>
+        <v>75.16022908471911</v>
       </c>
       <c r="T86">
-        <v>5.2222254381282</v>
+        <v>8.173631861493314</v>
       </c>
       <c r="U86">
-        <v>0.3937573961297913</v>
+        <v>0.4411754567236226</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6038,61 +6038,61 @@
         <v>20</v>
       </c>
       <c r="C87">
-        <v>219.7737842637489</v>
+        <v>150.0370834211429</v>
       </c>
       <c r="D87">
-        <v>6.823473485181579</v>
+        <v>2.94</v>
       </c>
       <c r="E87">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F87">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G87">
-        <v>0.4257855199486256</v>
+        <v>0.4997499213229581</v>
       </c>
       <c r="H87">
-        <v>441.4753485562899</v>
+        <v>409.2479416857084</v>
       </c>
       <c r="I87">
-        <v>751.2554110447559</v>
+        <v>643.7088624562697</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0.0369537323267216</v>
+        <v>61.47763699993892</v>
       </c>
       <c r="L87">
-        <v>330.8588852224573</v>
+        <v>48.70758428447495</v>
       </c>
       <c r="M87">
-        <v>181.4840437155992</v>
+        <v>207</v>
       </c>
       <c r="N87">
-        <v>30.24907695465184</v>
+        <v>63.91336865655025</v>
       </c>
       <c r="O87">
-        <v>7.537344578813217</v>
+        <v>5.000127616170944</v>
       </c>
       <c r="P87">
-        <v>43.32856464899599</v>
+        <v>59.33918328338172</v>
       </c>
       <c r="Q87">
-        <v>363.1484358742831</v>
+        <v>335.0940114251391</v>
       </c>
       <c r="R87">
-        <v>0.8420692949591149</v>
+        <v>0.1727684865923547</v>
       </c>
       <c r="S87">
-        <v>141.8619505766452</v>
+        <v>39.9400449853072</v>
       </c>
       <c r="T87">
-        <v>2.998173345791101</v>
+        <v>9.31024001642705</v>
       </c>
       <c r="U87">
-        <v>0.4092955850755797</v>
+        <v>0.356016158674803</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6103,61 +6103,61 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>214.7908291353635</v>
+        <v>163.0445613987088</v>
       </c>
       <c r="D88">
-        <v>2.969901995418438</v>
+        <v>2.957401071418208</v>
       </c>
       <c r="E88">
-        <v>1044</v>
+        <v>1458</v>
       </c>
       <c r="F88">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G88">
-        <v>0.4430230417267764</v>
+        <v>0.4688352804481007</v>
       </c>
       <c r="H88">
-        <v>423.6858829071548</v>
+        <v>400.8480491840542</v>
       </c>
       <c r="I88">
-        <v>695.9095731748803</v>
+        <v>734.124933198134</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2.39006546389912</v>
+        <v>145.9260729278043</v>
       </c>
       <c r="L88">
-        <v>17.97796325298139</v>
+        <v>7.911422583916687</v>
       </c>
       <c r="M88">
-        <v>181.4854201010309</v>
+        <v>206.9990708228669</v>
       </c>
       <c r="N88">
-        <v>59.44900202370469</v>
+        <v>51.18429004106347</v>
       </c>
       <c r="O88">
-        <v>5.87281173594745</v>
+        <v>5.194983760884723</v>
       </c>
       <c r="P88">
-        <v>49.36226369278049</v>
+        <v>53.7288576941168</v>
       </c>
       <c r="Q88">
-        <v>385.8066609683352</v>
+        <v>326.0863015197889</v>
       </c>
       <c r="R88">
-        <v>0.8256916949257856</v>
+        <v>0.468656145722936</v>
       </c>
       <c r="S88">
-        <v>45.31405164590344</v>
+        <v>47.09300752083006</v>
       </c>
       <c r="T88">
-        <v>4.003675595530548</v>
+        <v>9.940736837986266</v>
       </c>
       <c r="U88">
-        <v>0.4339836182386962</v>
+        <v>0.4723988848502998</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6168,61 +6168,61 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <v>150.0906484352313</v>
+        <v>156.3326674740971</v>
       </c>
       <c r="D89">
-        <v>2.940000020697128</v>
+        <v>7.671302713267857</v>
       </c>
       <c r="E89">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="F89">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G89">
-        <v>0.4976622225717301</v>
+        <v>0.4327889024099111</v>
       </c>
       <c r="H89">
-        <v>381.3370209131933</v>
+        <v>433.8824207812936</v>
       </c>
       <c r="I89">
-        <v>763.5392892257369</v>
+        <v>666.6341880581069</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>905.7915098122414</v>
+        <v>2.177741495200356</v>
       </c>
       <c r="L89">
-        <v>1.298809004100177</v>
+        <v>3.609270929786673</v>
       </c>
       <c r="M89">
-        <v>207</v>
+        <v>181.4840437214577</v>
       </c>
       <c r="N89">
-        <v>62.23631764668117</v>
+        <v>31.14458585382877</v>
       </c>
       <c r="O89">
-        <v>5.000149723243432</v>
+        <v>6.772493819652802</v>
       </c>
       <c r="P89">
-        <v>59.50556551449416</v>
+        <v>49.0562793835193</v>
       </c>
       <c r="Q89">
-        <v>321.0002363359984</v>
+        <v>403.6799840373678</v>
       </c>
       <c r="R89">
-        <v>0.08486678926294734</v>
+        <v>0.6799108566996084</v>
       </c>
       <c r="S89">
-        <v>236.2258325637458</v>
+        <v>81.09462740795421</v>
       </c>
       <c r="T89">
-        <v>14.45118649495187</v>
+        <v>3.725789329415285</v>
       </c>
       <c r="U89">
-        <v>0.5353336884655044</v>
+        <v>0.4426971019463604</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6233,61 +6233,61 @@
         <v>20</v>
       </c>
       <c r="C90">
-        <v>182.7196388623168</v>
+        <v>150.0172630241662</v>
       </c>
       <c r="D90">
-        <v>6.202749760403703</v>
+        <v>2.940000000987053</v>
       </c>
       <c r="E90">
-        <v>1044</v>
+        <v>1500</v>
       </c>
       <c r="F90">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G90">
-        <v>0.4318082093537287</v>
+        <v>0.4981547082479472</v>
       </c>
       <c r="H90">
-        <v>435.9018407060328</v>
+        <v>406.4567857371371</v>
       </c>
       <c r="I90">
-        <v>707.9065660231707</v>
+        <v>642.380361650813</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>4.795420104263594</v>
+        <v>69.07520290341408</v>
       </c>
       <c r="L90">
-        <v>21.84200888344568</v>
+        <v>20.33722994136519</v>
       </c>
       <c r="M90">
-        <v>181.4840437158428</v>
+        <v>207</v>
       </c>
       <c r="N90">
-        <v>31.22566577999218</v>
+        <v>52.35304834795801</v>
       </c>
       <c r="O90">
-        <v>6.786779511100124</v>
+        <v>5.001464941795838</v>
       </c>
       <c r="P90">
-        <v>36.55043450850823</v>
+        <v>57.18119800809064</v>
       </c>
       <c r="Q90">
-        <v>415.4963535923603</v>
+        <v>322.716532664337</v>
       </c>
       <c r="R90">
-        <v>0.8414408309313276</v>
+        <v>0.1699646827698686</v>
       </c>
       <c r="S90">
-        <v>72.78482012253964</v>
+        <v>39.32718774400636</v>
       </c>
       <c r="T90">
-        <v>3.080617578079198</v>
+        <v>6.356787178113684</v>
       </c>
       <c r="U90">
-        <v>0.4035635023250292</v>
+        <v>0.3782572734256009</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6298,61 +6298,61 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>195.1099471964411</v>
+        <v>169.3507434316645</v>
       </c>
       <c r="D91">
-        <v>3.228401104951169</v>
+        <v>2.948183792850757</v>
       </c>
       <c r="E91">
-        <v>1050</v>
+        <v>1463</v>
       </c>
       <c r="F91">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G91">
-        <v>0.4468119019471019</v>
+        <v>0.4758527403409137</v>
       </c>
       <c r="H91">
-        <v>412.3119971583692</v>
+        <v>389.5659036574336</v>
       </c>
       <c r="I91">
-        <v>773.0980882587039</v>
+        <v>781.3444559654591</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>25.24513737149163</v>
+        <v>346.7674106613586</v>
       </c>
       <c r="L91">
-        <v>2.173894567020833</v>
+        <v>49.93687247882006</v>
       </c>
       <c r="M91">
-        <v>181.4864504593973</v>
+        <v>206.9982433678796</v>
       </c>
       <c r="N91">
-        <v>45.38415913854529</v>
+        <v>50.96762086556808</v>
       </c>
       <c r="O91">
-        <v>5.629771950268887</v>
+        <v>5.050409585942364</v>
       </c>
       <c r="P91">
-        <v>58.20375921757142</v>
+        <v>54.13363760600063</v>
       </c>
       <c r="Q91">
-        <v>347.8311598474248</v>
+        <v>321.0001366872857</v>
       </c>
       <c r="R91">
-        <v>0.5059403836526325</v>
+        <v>0.2545381901835106</v>
       </c>
       <c r="S91">
-        <v>89.43615328108106</v>
+        <v>104.4542918105378</v>
       </c>
       <c r="T91">
-        <v>9.249679123640087</v>
+        <v>13.78850041571951</v>
       </c>
       <c r="U91">
-        <v>0.4588338940011978</v>
+        <v>0.4956090210717836</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6360,64 +6360,64 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>206.0018034209144</v>
+        <v>150.0391972704451</v>
       </c>
       <c r="D92">
-        <v>2.940000000037764</v>
+        <v>3.00366721517874</v>
       </c>
       <c r="E92">
-        <v>1495</v>
+        <v>1098</v>
       </c>
       <c r="F92">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G92">
-        <v>0.4854636456226524</v>
+        <v>0.4805513614273202</v>
       </c>
       <c r="H92">
-        <v>399.6433368769003</v>
+        <v>425.7560342369529</v>
       </c>
       <c r="I92">
-        <v>707.1031903019204</v>
+        <v>644.3336479050879</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>33.57977952163161</v>
+        <v>4.526677893168707</v>
       </c>
       <c r="L92">
-        <v>30.91396720667175</v>
+        <v>360.108457328613</v>
       </c>
       <c r="M92">
-        <v>206.9999999999999</v>
+        <v>206.9999999999995</v>
       </c>
       <c r="N92">
-        <v>63.41305873687481</v>
+        <v>51.18945155334815</v>
       </c>
       <c r="O92">
-        <v>5.040527325353465</v>
+        <v>5.238973766216434</v>
       </c>
       <c r="P92">
-        <v>53.95677603942774</v>
+        <v>47.50168828365215</v>
       </c>
       <c r="Q92">
-        <v>322.074951396754</v>
+        <v>322.5475586083419</v>
       </c>
       <c r="R92">
-        <v>0.6949280636703163</v>
+        <v>0.6461046419220402</v>
       </c>
       <c r="S92">
-        <v>54.4364938332284</v>
+        <v>48.97685493051615</v>
       </c>
       <c r="T92">
-        <v>5.355846822381986</v>
+        <v>3.086945652304793</v>
       </c>
       <c r="U92">
-        <v>0.4101375904702451</v>
+        <v>0.3646016211748841</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6428,61 +6428,61 @@
         <v>20</v>
       </c>
       <c r="C93">
-        <v>153.6344593714632</v>
+        <v>200.9311729775451</v>
       </c>
       <c r="D93">
-        <v>2.999595793625968</v>
+        <v>8.566933624007131</v>
       </c>
       <c r="E93">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F93">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G93">
-        <v>0.4676385757656926</v>
+        <v>0.4300008149366224</v>
       </c>
       <c r="H93">
-        <v>431.357552296347</v>
+        <v>395.6891795110419</v>
       </c>
       <c r="I93">
-        <v>651.260090168499</v>
+        <v>780.2771545078465</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2.233520011923772</v>
+        <v>162.8651288923106</v>
       </c>
       <c r="L93">
-        <v>167.520883202698</v>
+        <v>0.06412898837385193</v>
       </c>
       <c r="M93">
-        <v>206.9999961474063</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N93">
-        <v>39.62142010184101</v>
+        <v>37.17474708240371</v>
       </c>
       <c r="O93">
-        <v>5.406377993565807</v>
+        <v>6.898435122896472</v>
       </c>
       <c r="P93">
-        <v>47.1575024869265</v>
+        <v>56.43781062225262</v>
       </c>
       <c r="Q93">
-        <v>390.8632392138932</v>
+        <v>323.5930890120478</v>
       </c>
       <c r="R93">
-        <v>0.6955049834511484</v>
+        <v>0.8499624806355742</v>
       </c>
       <c r="S93">
-        <v>53.7640516012319</v>
+        <v>180.9161100848609</v>
       </c>
       <c r="T93">
-        <v>3.257642196767037</v>
+        <v>4.560462662331337</v>
       </c>
       <c r="U93">
-        <v>0.4124171611933063</v>
+        <v>0.4952590181369445</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6490,64 +6490,64 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C94">
-        <v>150.0000079944836</v>
+        <v>172.92950180831</v>
       </c>
       <c r="D94">
-        <v>2.940000000037366</v>
+        <v>4.625530188006325</v>
       </c>
       <c r="E94">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="F94">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>0.4997344251074415</v>
+        <v>0.4380683641217858</v>
       </c>
       <c r="H94">
-        <v>416.1565490418275</v>
+        <v>446.284635386133</v>
       </c>
       <c r="I94">
-        <v>630.452344860206</v>
+        <v>638.6429999030419</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>269.308411162128</v>
+        <v>2.449898447609488E-07</v>
       </c>
       <c r="L94">
-        <v>0.08732521167552755</v>
+        <v>305.9256654644848</v>
       </c>
       <c r="M94">
-        <v>207</v>
+        <v>181.489300315085</v>
       </c>
       <c r="N94">
-        <v>43.91731958013651</v>
+        <v>39.20619895744727</v>
       </c>
       <c r="O94">
-        <v>5.000429822897397</v>
+        <v>6.45769165625991</v>
       </c>
       <c r="P94">
-        <v>59.5030273091286</v>
+        <v>36.79735586712593</v>
       </c>
       <c r="Q94">
-        <v>336.5475089170475</v>
+        <v>421.0280816340673</v>
       </c>
       <c r="R94">
-        <v>0.4302395993076333</v>
+        <v>0.8120336502675148</v>
       </c>
       <c r="S94">
-        <v>39.70404554830936</v>
+        <v>41.26381350542488</v>
       </c>
       <c r="T94">
-        <v>3.694056709582953</v>
+        <v>3.036358367475614</v>
       </c>
       <c r="U94">
-        <v>0.4005371420581987</v>
+        <v>0.3426229512432577</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6555,64 +6555,64 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>150.2538599203994</v>
+        <v>153.540844627096</v>
       </c>
       <c r="D95">
-        <v>2.969535356859129</v>
+        <v>2.94000105794112</v>
       </c>
       <c r="E95">
-        <v>1087</v>
+        <v>1496</v>
       </c>
       <c r="F95">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G95">
-        <v>0.4854349067543069</v>
+        <v>0.4898152635976865</v>
       </c>
       <c r="H95">
-        <v>415.6948952371076</v>
+        <v>420.3022312075241</v>
       </c>
       <c r="I95">
-        <v>662.5105281133873</v>
+        <v>678.8346014074714</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>109.0192611975525</v>
+        <v>6.129726536253195</v>
       </c>
       <c r="L95">
-        <v>4.819794283151406</v>
+        <v>175.6309495531067</v>
       </c>
       <c r="M95">
-        <v>206.9999999999994</v>
+        <v>207</v>
       </c>
       <c r="N95">
-        <v>52.84228355064008</v>
+        <v>58.82397164669286</v>
       </c>
       <c r="O95">
-        <v>5.197977732756934</v>
+        <v>5.021896319221259</v>
       </c>
       <c r="P95">
-        <v>51.6575636107826</v>
+        <v>57.39112962240549</v>
       </c>
       <c r="Q95">
-        <v>372.7428500527637</v>
+        <v>321.0735643829868</v>
       </c>
       <c r="R95">
-        <v>0.5390422900366842</v>
+        <v>0.313761215760993</v>
       </c>
       <c r="S95">
-        <v>44.27168152433426</v>
+        <v>41.52086142545367</v>
       </c>
       <c r="T95">
-        <v>3.8261764883425</v>
+        <v>5.364456390514436</v>
       </c>
       <c r="U95">
-        <v>0.3523527461246332</v>
+        <v>0.3374361434954081</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6623,61 +6623,61 @@
         <v>20</v>
       </c>
       <c r="C96">
-        <v>190.685844552906</v>
+        <v>203.3156256034247</v>
       </c>
       <c r="D96">
-        <v>3.93430008705647</v>
+        <v>5.235736168551307</v>
       </c>
       <c r="E96">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F96">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>0.4389758421695942</v>
+        <v>0.4334385529639165</v>
       </c>
       <c r="H96">
-        <v>412.3115021419871</v>
+        <v>396.9727739594425</v>
       </c>
       <c r="I96">
-        <v>779.2728068958279</v>
+        <v>786.7089416493664</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>28.54488410477445</v>
+        <v>3.548499526474033</v>
       </c>
       <c r="L96">
-        <v>801.7782509847373</v>
+        <v>1809.468710011502</v>
       </c>
       <c r="M96">
-        <v>181.484043986447</v>
+        <v>181.4840437155993</v>
       </c>
       <c r="N96">
-        <v>30.50790839509349</v>
+        <v>41.9693587563764</v>
       </c>
       <c r="O96">
-        <v>5.681112107093115</v>
+        <v>6.011254700441843</v>
       </c>
       <c r="P96">
-        <v>53.98532896255384</v>
+        <v>11.90661701467664</v>
       </c>
       <c r="Q96">
-        <v>324.7757181134832</v>
+        <v>332.4305896806842</v>
       </c>
       <c r="R96">
-        <v>0.2463695612504438</v>
+        <v>0.7724920362028257</v>
       </c>
       <c r="S96">
-        <v>73.237229605724</v>
+        <v>209.1973595425006</v>
       </c>
       <c r="T96">
-        <v>12.64292587395055</v>
+        <v>9.487591428779476</v>
       </c>
       <c r="U96">
-        <v>0.5012488999248597</v>
+        <v>0.5286104292225486</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6688,61 +6688,61 @@
         <v>20</v>
       </c>
       <c r="C97">
-        <v>194.3713896012898</v>
+        <v>204.6488541099548</v>
       </c>
       <c r="D97">
-        <v>3.284764661379837</v>
+        <v>6.813559709652472</v>
       </c>
       <c r="E97">
         <v>1044</v>
       </c>
       <c r="F97">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G97">
-        <v>0.4429693528435387</v>
+        <v>0.4315291643573142</v>
       </c>
       <c r="H97">
-        <v>417.5437087528012</v>
+        <v>413.5054156949761</v>
       </c>
       <c r="I97">
-        <v>745.7782278850276</v>
+        <v>781.3064563529636</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>28.51280385263652</v>
+        <v>16.91020316410409</v>
       </c>
       <c r="L97">
-        <v>1309.309112379853</v>
+        <v>97.16727827153457</v>
       </c>
       <c r="M97">
-        <v>181.4840696619256</v>
+        <v>181.4840437155992</v>
       </c>
       <c r="N97">
-        <v>31.19010291063313</v>
+        <v>33.61092515697726</v>
       </c>
       <c r="O97">
-        <v>5.862665403288867</v>
+        <v>6.480155787969552</v>
       </c>
       <c r="P97">
-        <v>31.54454263609193</v>
+        <v>39.64144343095677</v>
       </c>
       <c r="Q97">
-        <v>326.5109747767137</v>
+        <v>358.0679473672427</v>
       </c>
       <c r="R97">
-        <v>0.6162474669258177</v>
+        <v>0.7968586753146814</v>
       </c>
       <c r="S97">
-        <v>242.288056457585</v>
+        <v>101.5655316542285</v>
       </c>
       <c r="T97">
-        <v>6.02912369763888</v>
+        <v>4.162633448057749</v>
       </c>
       <c r="U97">
-        <v>0.4490046963044028</v>
+        <v>0.4492973309603299</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6750,64 +6750,64 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>150.3440760955159</v>
+        <v>199.3101629590307</v>
       </c>
       <c r="D98">
-        <v>3.065626092362468</v>
+        <v>2.940037425417473</v>
       </c>
       <c r="E98">
-        <v>1441</v>
+        <v>1493</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G98">
-        <v>0.4689804969216945</v>
+        <v>0.468932935020043</v>
       </c>
       <c r="H98">
-        <v>425.2305191044118</v>
+        <v>401.2859976105967</v>
       </c>
       <c r="I98">
-        <v>686.7528819935492</v>
+        <v>778.8072226771098</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>13.73677974486527</v>
+        <v>376.3760707179844</v>
       </c>
       <c r="L98">
-        <v>103.0186514576551</v>
+        <v>4.693196375898484E-05</v>
       </c>
       <c r="M98">
-        <v>206.9999999901152</v>
+        <v>206.9998718527278</v>
       </c>
       <c r="N98">
-        <v>40.71585908852287</v>
+        <v>57.31434921620682</v>
       </c>
       <c r="O98">
-        <v>5.282721750805463</v>
+        <v>5.074416331602655</v>
       </c>
       <c r="P98">
-        <v>49.87309427923446</v>
+        <v>60.38432145665481</v>
       </c>
       <c r="Q98">
-        <v>346.0166590851856</v>
+        <v>326.8528681867966</v>
       </c>
       <c r="R98">
-        <v>0.8307495670535263</v>
+        <v>0.3862484215333469</v>
       </c>
       <c r="S98">
-        <v>47.46577933569696</v>
+        <v>66.84494669088613</v>
       </c>
       <c r="T98">
-        <v>3.131060919202888</v>
+        <v>6.249590927181815</v>
       </c>
       <c r="U98">
-        <v>0.3396837397041821</v>
+        <v>0.4801002921317028</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6815,64 +6815,64 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>216.0498660161748</v>
+        <v>150.919582377521</v>
       </c>
       <c r="D99">
-        <v>2.968059138342419</v>
+        <v>2.975657616921258</v>
       </c>
       <c r="E99">
-        <v>1044</v>
+        <v>1469</v>
       </c>
       <c r="F99">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G99">
-        <v>0.4388025780081375</v>
+        <v>0.4754114452225984</v>
       </c>
       <c r="H99">
-        <v>418.9082064746519</v>
+        <v>417.4894168353901</v>
       </c>
       <c r="I99">
-        <v>763.0158113189847</v>
+        <v>652.6356395669554</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>161.3428402539216</v>
+        <v>2.251804665851007</v>
       </c>
       <c r="L99">
-        <v>3.412471101209673</v>
+        <v>227.7640809323192</v>
       </c>
       <c r="M99">
-        <v>181.4840438638657</v>
+        <v>206.9999999703473</v>
       </c>
       <c r="N99">
-        <v>31.68324566653788</v>
+        <v>35.94164462174087</v>
       </c>
       <c r="O99">
-        <v>5.939232004078203</v>
+        <v>5.367794131128601</v>
       </c>
       <c r="P99">
-        <v>50.28898976835338</v>
+        <v>45.50310740282843</v>
       </c>
       <c r="Q99">
-        <v>325.2010274596934</v>
+        <v>327.9899492750374</v>
       </c>
       <c r="R99">
-        <v>0.4317337510569146</v>
+        <v>0.3242651497465938</v>
       </c>
       <c r="S99">
-        <v>95.14513579708779</v>
+        <v>46.36155516040804</v>
       </c>
       <c r="T99">
-        <v>5.737303391656519</v>
+        <v>2.914794012196752</v>
       </c>
       <c r="U99">
-        <v>0.4211108576280789</v>
+        <v>0.3061077419241556</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6883,61 +6883,61 @@
         <v>20</v>
       </c>
       <c r="C100">
-        <v>218.640744112743</v>
+        <v>150.0498785427572</v>
       </c>
       <c r="D100">
-        <v>2.950192220116183</v>
+        <v>2.940000000000289</v>
       </c>
       <c r="E100">
-        <v>1045</v>
+        <v>1500</v>
       </c>
       <c r="F100">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G100">
-        <v>0.4450692087548819</v>
+        <v>0.4988710168472921</v>
       </c>
       <c r="H100">
-        <v>404.4272960767696</v>
+        <v>418.6569141227917</v>
       </c>
       <c r="I100">
-        <v>762.7323836566038</v>
+        <v>633.4827683111439</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>28.9440242372158</v>
+        <v>4.029702391934579</v>
       </c>
       <c r="L100">
-        <v>77.59901287658874</v>
+        <v>1.692871090483431</v>
       </c>
       <c r="M100">
-        <v>181.4840501893296</v>
+        <v>207</v>
       </c>
       <c r="N100">
-        <v>59.72892419294345</v>
+        <v>61.795072802539</v>
       </c>
       <c r="O100">
-        <v>5.780258416602358</v>
+        <v>5.001267217141681</v>
       </c>
       <c r="P100">
-        <v>30.86944896471325</v>
+        <v>60.04462529154848</v>
       </c>
       <c r="Q100">
-        <v>323.3175286085955</v>
+        <v>392.0614440158428</v>
       </c>
       <c r="R100">
-        <v>0.7907573904145861</v>
+        <v>0.2786047073654376</v>
       </c>
       <c r="S100">
-        <v>65.41693021639307</v>
+        <v>40.38737176774042</v>
       </c>
       <c r="T100">
-        <v>8.168037579482093</v>
+        <v>4.309718528772938</v>
       </c>
       <c r="U100">
-        <v>0.4510409226595893</v>
+        <v>0.3848788368304938</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6948,61 +6948,61 @@
         <v>20</v>
       </c>
       <c r="C101">
-        <v>202.7186143675202</v>
+        <v>150.0317984031025</v>
       </c>
       <c r="D101">
-        <v>2.940000219703892</v>
+        <v>4.309089428598003</v>
       </c>
       <c r="E101">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G101">
-        <v>0.4756048680659477</v>
+        <v>0.4740031212941019</v>
       </c>
       <c r="H101">
-        <v>405.4491829366045</v>
+        <v>391.781523497822</v>
       </c>
       <c r="I101">
-        <v>749.1551460000244</v>
+        <v>784.988912347209</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1071.762246108652</v>
+        <v>285.1873534487514</v>
       </c>
       <c r="L101">
-        <v>0.1982365621323468</v>
+        <v>716.0898242032068</v>
       </c>
       <c r="M101">
-        <v>206.9999992922617</v>
+        <v>206.999439985056</v>
       </c>
       <c r="N101">
-        <v>43.3875153966063</v>
+        <v>45.99705977237051</v>
       </c>
       <c r="O101">
-        <v>5.087117412084705</v>
+        <v>5.06320324440096</v>
       </c>
       <c r="P101">
-        <v>52.68480297322152</v>
+        <v>47.27234381253947</v>
       </c>
       <c r="Q101">
-        <v>363.5399661238621</v>
+        <v>321.0126396430704</v>
       </c>
       <c r="R101">
-        <v>0.5513878855967945</v>
+        <v>0.2931710551101903</v>
       </c>
       <c r="S101">
-        <v>226.1579648104753</v>
+        <v>69.97603145666838</v>
       </c>
       <c r="T101">
-        <v>8.285807871386847</v>
+        <v>7.653637541423578</v>
       </c>
       <c r="U101">
-        <v>0.509013836229441</v>
+        <v>0.4633930495557195</v>
       </c>
     </row>
   </sheetData>
